--- a/xlsx/lu_coho.xlsx
+++ b/xlsx/lu_coho.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/daniel_auerbach_dfw_wa_gov/Documents/code/framr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/daniel_auerbach_dfw_wa_gov/Documents/code/framr/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B4543F-78BB-4220-988B-83DC0936FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="912" documentId="8_{21B4543F-78BB-4220-988B-83DC0936FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3EFA380-FEC2-4D2C-8A2B-701E2F6BE4DA}"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="216" windowWidth="17028" windowHeight="11508" xr2:uid="{DF93BC40-F587-4C27-AB72-1CFE9880D23F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DF93BC40-F587-4C27-AB72-1CFE9880D23F}"/>
   </bookViews>
   <sheets>
     <sheet name="CRC_FRAM" sheetId="1" r:id="rId1"/>
+    <sheet name="WAFT_FRAM" sheetId="2" r:id="rId2"/>
+    <sheet name="TOCAS_FRAM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="364">
   <si>
     <t>area_code</t>
   </si>
@@ -445,6 +447,687 @@
   </si>
   <si>
     <t>836</t>
+  </si>
+  <si>
+    <t>CatchAreaCode</t>
+  </si>
+  <si>
+    <t>FisherTypeDescription</t>
+  </si>
+  <si>
+    <t>GearCode</t>
+  </si>
+  <si>
+    <t>Non-Treaty</t>
+  </si>
+  <si>
+    <t>Treaty</t>
+  </si>
+  <si>
+    <t>06C</t>
+  </si>
+  <si>
+    <t>02M</t>
+  </si>
+  <si>
+    <t>02N</t>
+  </si>
+  <si>
+    <t>02R</t>
+  </si>
+  <si>
+    <t>02T</t>
+  </si>
+  <si>
+    <t>02U</t>
+  </si>
+  <si>
+    <t>02D</t>
+  </si>
+  <si>
+    <t>Fishery</t>
+  </si>
+  <si>
+    <t>Gear_type</t>
+  </si>
+  <si>
+    <t>Catch_Area</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A1-Ast Troll</t>
+  </si>
+  <si>
+    <t>Area2TrlNT</t>
+  </si>
+  <si>
+    <t>Area2TrlTR</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Area3TrlNT</t>
+  </si>
+  <si>
+    <t>Area3TrlTR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>A4/4BTrlNT</t>
+  </si>
+  <si>
+    <t>A4/4BTrlTR</t>
+  </si>
+  <si>
+    <t>Hook&amp;Line</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>A5-6CTroll</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>2J</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>2N</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>2U</t>
+  </si>
+  <si>
+    <t>WlpaBT Net</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>GryHbr Net</t>
+  </si>
+  <si>
+    <t>TribeName</t>
+  </si>
+  <si>
+    <t>QUINAULT - 18</t>
+  </si>
+  <si>
+    <t>72B</t>
+  </si>
+  <si>
+    <t>LwCheh Net</t>
+  </si>
+  <si>
+    <t>Hump R Net</t>
+  </si>
+  <si>
+    <t>72F</t>
+  </si>
+  <si>
+    <t>CHEHALIS - 02</t>
+  </si>
+  <si>
+    <t>UpCheh Net</t>
+  </si>
+  <si>
+    <t>72O</t>
+  </si>
+  <si>
+    <t>72P</t>
+  </si>
+  <si>
+    <t>72W</t>
+  </si>
+  <si>
+    <t>Quin R Net</t>
+  </si>
+  <si>
+    <t>73C</t>
+  </si>
+  <si>
+    <t>73G</t>
+  </si>
+  <si>
+    <t>Queets Net</t>
+  </si>
+  <si>
+    <t>Queets C&amp;S</t>
+  </si>
+  <si>
+    <t>Quilly Net</t>
+  </si>
+  <si>
+    <t>73A</t>
+  </si>
+  <si>
+    <t>73B</t>
+  </si>
+  <si>
+    <t>73D</t>
+  </si>
+  <si>
+    <t>73H</t>
+  </si>
+  <si>
+    <t>73J</t>
+  </si>
+  <si>
+    <t>Quilly C&amp;S</t>
+  </si>
+  <si>
+    <t>C&amp;SF</t>
+  </si>
+  <si>
+    <t>73E</t>
+  </si>
+  <si>
+    <t>Hoh R Net</t>
+  </si>
+  <si>
+    <t>Hoh R C&amp;S</t>
+  </si>
+  <si>
+    <t>74A</t>
+  </si>
+  <si>
+    <t>74C</t>
+  </si>
+  <si>
+    <t>74D</t>
+  </si>
+  <si>
+    <t>Mak FW Net</t>
+  </si>
+  <si>
+    <t>A4B6CNetNT</t>
+  </si>
+  <si>
+    <t>A4B6CNetTR</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>Ar6D NetNT</t>
+  </si>
+  <si>
+    <t>Ar6D NetTR</t>
+  </si>
+  <si>
+    <t>76A</t>
+  </si>
+  <si>
+    <t>76B</t>
+  </si>
+  <si>
+    <t>Elwha Net</t>
+  </si>
+  <si>
+    <t>74B</t>
+  </si>
+  <si>
+    <t>74E</t>
+  </si>
+  <si>
+    <t>75E</t>
+  </si>
+  <si>
+    <t>75D</t>
+  </si>
+  <si>
+    <t>75A</t>
+  </si>
+  <si>
+    <t>75B</t>
+  </si>
+  <si>
+    <t>75C</t>
+  </si>
+  <si>
+    <t>75F</t>
+  </si>
+  <si>
+    <t>75G</t>
+  </si>
+  <si>
+    <t>WJDF T Net</t>
+  </si>
+  <si>
+    <t>A6-7ANetNT</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>A6-7ANetTR</t>
+  </si>
+  <si>
+    <t>A7BCDNetNT</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>A7BCDNetTR</t>
+  </si>
+  <si>
+    <t>Nook R Net</t>
+  </si>
+  <si>
+    <t>77B</t>
+  </si>
+  <si>
+    <t>77C</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Ar 8 NetNT</t>
+  </si>
+  <si>
+    <t>Ar 8 NetTR</t>
+  </si>
+  <si>
+    <t>78B</t>
+  </si>
+  <si>
+    <t>78C</t>
+  </si>
+  <si>
+    <t>78c</t>
+  </si>
+  <si>
+    <t>78D</t>
+  </si>
+  <si>
+    <t>78d</t>
+  </si>
+  <si>
+    <t>78O</t>
+  </si>
+  <si>
+    <t>78P</t>
+  </si>
+  <si>
+    <t>78p</t>
+  </si>
+  <si>
+    <t>Skag R Net</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>SkgR TsNet</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>Ar8A NetNT</t>
+  </si>
+  <si>
+    <t>Ar8A NetTR</t>
+  </si>
+  <si>
+    <t>Ar8D NetNT</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>8d</t>
+  </si>
+  <si>
+    <t>Ar8D NetTR</t>
+  </si>
+  <si>
+    <t>78G</t>
+  </si>
+  <si>
+    <t>Still R Net</t>
+  </si>
+  <si>
+    <t>78A</t>
+  </si>
+  <si>
+    <t>78E</t>
+  </si>
+  <si>
+    <t>78F</t>
+  </si>
+  <si>
+    <t>78H</t>
+  </si>
+  <si>
+    <t>78N</t>
+  </si>
+  <si>
+    <t>Snoh R Net</t>
+  </si>
+  <si>
+    <t>Ar10 NetNT</t>
+  </si>
+  <si>
+    <t>80C</t>
+  </si>
+  <si>
+    <t>Ar10 NetTR</t>
+  </si>
+  <si>
+    <t>Ar10ANetNT</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>Ar10ANetTR</t>
+  </si>
+  <si>
+    <t>Ar10ENetNT</t>
+  </si>
+  <si>
+    <t>Ar10ENetTR</t>
+  </si>
+  <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>10F-G Net</t>
+  </si>
+  <si>
+    <t>10B</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <t>10D</t>
+  </si>
+  <si>
+    <t>10F</t>
+  </si>
+  <si>
+    <t>10G</t>
+  </si>
+  <si>
+    <t>10g</t>
+  </si>
+  <si>
+    <t>80A</t>
+  </si>
+  <si>
+    <t>Duwm R Net</t>
+  </si>
+  <si>
+    <t>80B</t>
+  </si>
+  <si>
+    <t>Ar11 NetNT</t>
+  </si>
+  <si>
+    <t>Ar11 NetTR</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>Ar11ANetNT</t>
+  </si>
+  <si>
+    <t>Ar11ANetTR</t>
+  </si>
+  <si>
+    <t>Puy R Net</t>
+  </si>
+  <si>
+    <t>81A</t>
+  </si>
+  <si>
+    <t>81B</t>
+  </si>
+  <si>
+    <t>81C</t>
+  </si>
+  <si>
+    <t>Ar13 NetNT</t>
+  </si>
+  <si>
+    <t>13C</t>
+  </si>
+  <si>
+    <t>Ar13 NetTR</t>
+  </si>
+  <si>
+    <t>13A</t>
+  </si>
+  <si>
+    <t>Ar13ANetNT</t>
+  </si>
+  <si>
+    <t>Ar13ANetTR</t>
+  </si>
+  <si>
+    <t>83C</t>
+  </si>
+  <si>
+    <t>13D</t>
+  </si>
+  <si>
+    <t>Ar13DNetNT</t>
+  </si>
+  <si>
+    <t>Ar13DNetTR</t>
+  </si>
+  <si>
+    <t>Ar13FKNetNT</t>
+  </si>
+  <si>
+    <t>13B</t>
+  </si>
+  <si>
+    <t>13E</t>
+  </si>
+  <si>
+    <t>13F</t>
+  </si>
+  <si>
+    <t>13G</t>
+  </si>
+  <si>
+    <t>13H</t>
+  </si>
+  <si>
+    <t>13I</t>
+  </si>
+  <si>
+    <t>13J</t>
+  </si>
+  <si>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>83A</t>
+  </si>
+  <si>
+    <t>83B</t>
+  </si>
+  <si>
+    <t>Ar13FKNetTR</t>
+  </si>
+  <si>
+    <t>Nisq R Net</t>
+  </si>
+  <si>
+    <t>83D</t>
+  </si>
+  <si>
+    <t>83F</t>
+  </si>
+  <si>
+    <t>McAlls Net</t>
+  </si>
+  <si>
+    <t>1212BNetNT</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>82C</t>
+  </si>
+  <si>
+    <t>82D</t>
+  </si>
+  <si>
+    <t>1212BNetTR</t>
+  </si>
+  <si>
+    <t>Ar9ANetNT</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>Ar9ANetTR</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>!TEST</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>Ar12ANetNT</t>
+  </si>
+  <si>
+    <t>Ar12ANetTR</t>
+  </si>
+  <si>
+    <t>Ar12CDNetNT</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>12D</t>
+  </si>
+  <si>
+    <t>12H</t>
+  </si>
+  <si>
+    <t>Ar12CDNetTR</t>
+  </si>
+  <si>
+    <t>82H</t>
+  </si>
+  <si>
+    <t>82I</t>
+  </si>
+  <si>
+    <t>82B</t>
+  </si>
+  <si>
+    <t>Skok R Net</t>
+  </si>
+  <si>
+    <t>82G</t>
+  </si>
+  <si>
+    <t>82J</t>
+  </si>
+  <si>
+    <t>Quilcn Net</t>
+  </si>
+  <si>
+    <t>82F</t>
+  </si>
+  <si>
+    <t>name_drop</t>
   </si>
 </sst>
 </file>
@@ -480,8 +1163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3C426C-4AE0-4B62-92FF-E56FA32A8C6E}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1910,4 +2594,4906 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1366F-662E-496B-A606-6E5944C15486}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791897C-B1AF-42C3-BE7F-0B75DF2F5858}">
+  <dimension ref="A1:G265"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39">
+        <v>52</v>
+      </c>
+      <c r="G39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40">
+        <v>52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41">
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43">
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46">
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47">
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48">
+        <v>63</v>
+      </c>
+      <c r="G48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49">
+        <v>63</v>
+      </c>
+      <c r="G49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50">
+        <v>63</v>
+      </c>
+      <c r="G50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51">
+        <v>63</v>
+      </c>
+      <c r="G51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53">
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54">
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55">
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56">
+        <v>71</v>
+      </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57">
+        <v>71</v>
+      </c>
+      <c r="G57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58">
+        <v>71</v>
+      </c>
+      <c r="G58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59">
+        <v>71</v>
+      </c>
+      <c r="G59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60">
+        <v>71</v>
+      </c>
+      <c r="G60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61">
+        <v>72</v>
+      </c>
+      <c r="G61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62">
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" t="s">
+        <v>208</v>
+      </c>
+      <c r="F63">
+        <v>72</v>
+      </c>
+      <c r="G63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64">
+        <v>72</v>
+      </c>
+      <c r="G64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
+        <v>210</v>
+      </c>
+      <c r="F65">
+        <v>72</v>
+      </c>
+      <c r="G65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66">
+        <v>74</v>
+      </c>
+      <c r="G66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67">
+        <v>74</v>
+      </c>
+      <c r="G67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F79">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" t="s">
+        <v>222</v>
+      </c>
+      <c r="F81">
+        <v>82</v>
+      </c>
+      <c r="G81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82">
+        <v>83</v>
+      </c>
+      <c r="G82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83">
+        <v>83</v>
+      </c>
+      <c r="G83" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>225</v>
+      </c>
+      <c r="F85">
+        <v>83</v>
+      </c>
+      <c r="G85" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" t="s">
+        <v>226</v>
+      </c>
+      <c r="F87">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" t="s">
+        <v>228</v>
+      </c>
+      <c r="F88">
+        <v>85</v>
+      </c>
+      <c r="G88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89">
+        <v>85</v>
+      </c>
+      <c r="G89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" t="s">
+        <v>233</v>
+      </c>
+      <c r="F91">
+        <v>85</v>
+      </c>
+      <c r="G91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" t="s">
+        <v>231</v>
+      </c>
+      <c r="F93">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>173</v>
+      </c>
+      <c r="E94" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94">
+        <v>85</v>
+      </c>
+      <c r="G94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" t="s">
+        <v>235</v>
+      </c>
+      <c r="F95">
+        <v>85</v>
+      </c>
+      <c r="G95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" t="s">
+        <v>236</v>
+      </c>
+      <c r="F96">
+        <v>85</v>
+      </c>
+      <c r="G96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97">
+        <v>85</v>
+      </c>
+      <c r="G97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" t="s">
+        <v>229</v>
+      </c>
+      <c r="F98">
+        <v>85</v>
+      </c>
+      <c r="G98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" t="s">
+        <v>232</v>
+      </c>
+      <c r="F99">
+        <v>85</v>
+      </c>
+      <c r="G99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100">
+        <v>85</v>
+      </c>
+      <c r="G100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" t="s">
+        <v>234</v>
+      </c>
+      <c r="F101">
+        <v>85</v>
+      </c>
+      <c r="G101" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>166</v>
+      </c>
+      <c r="E102" t="s">
+        <v>231</v>
+      </c>
+      <c r="F102">
+        <v>85</v>
+      </c>
+      <c r="G102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>166</v>
+      </c>
+      <c r="E103" t="s">
+        <v>230</v>
+      </c>
+      <c r="F103">
+        <v>85</v>
+      </c>
+      <c r="G103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" t="s">
+        <v>235</v>
+      </c>
+      <c r="F104">
+        <v>85</v>
+      </c>
+      <c r="G104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="E105" t="s">
+        <v>236</v>
+      </c>
+      <c r="F105">
+        <v>85</v>
+      </c>
+      <c r="G105" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F106">
+        <v>87</v>
+      </c>
+      <c r="G106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" t="s">
+        <v>170</v>
+      </c>
+      <c r="F107">
+        <v>87</v>
+      </c>
+      <c r="G107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108">
+        <v>87</v>
+      </c>
+      <c r="G108" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>173</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109">
+        <v>87</v>
+      </c>
+      <c r="G109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>173</v>
+      </c>
+      <c r="E110" t="s">
+        <v>240</v>
+      </c>
+      <c r="F110">
+        <v>87</v>
+      </c>
+      <c r="G110" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
+      <c r="E111" t="s">
+        <v>241</v>
+      </c>
+      <c r="F111">
+        <v>87</v>
+      </c>
+      <c r="G111" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F112">
+        <v>87</v>
+      </c>
+      <c r="G112" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113">
+        <v>87</v>
+      </c>
+      <c r="G113" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" t="s">
+        <v>171</v>
+      </c>
+      <c r="F114">
+        <v>87</v>
+      </c>
+      <c r="G114" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F115">
+        <v>87</v>
+      </c>
+      <c r="G115" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>173</v>
+      </c>
+      <c r="E116" t="s">
+        <v>240</v>
+      </c>
+      <c r="F116">
+        <v>87</v>
+      </c>
+      <c r="G116" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117">
+        <v>87</v>
+      </c>
+      <c r="G117" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>173</v>
+      </c>
+      <c r="E118" t="s">
+        <v>244</v>
+      </c>
+      <c r="F118">
+        <v>96</v>
+      </c>
+      <c r="G118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>173</v>
+      </c>
+      <c r="E119" t="s">
+        <v>245</v>
+      </c>
+      <c r="F119">
+        <v>96</v>
+      </c>
+      <c r="G119" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F120">
+        <v>96</v>
+      </c>
+      <c r="G120" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>173</v>
+      </c>
+      <c r="E121" t="s">
+        <v>244</v>
+      </c>
+      <c r="F121">
+        <v>97</v>
+      </c>
+      <c r="G121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>173</v>
+      </c>
+      <c r="E122" t="s">
+        <v>245</v>
+      </c>
+      <c r="F122">
+        <v>97</v>
+      </c>
+      <c r="G122" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" t="s">
+        <v>246</v>
+      </c>
+      <c r="F123">
+        <v>97</v>
+      </c>
+      <c r="G123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" t="s">
+        <v>249</v>
+      </c>
+      <c r="F124">
+        <v>98</v>
+      </c>
+      <c r="G124" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" t="s">
+        <v>250</v>
+      </c>
+      <c r="F125">
+        <v>98</v>
+      </c>
+      <c r="G125" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>173</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F126">
+        <v>101</v>
+      </c>
+      <c r="G126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F127">
+        <v>102</v>
+      </c>
+      <c r="G127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>173</v>
+      </c>
+      <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128">
+        <v>103</v>
+      </c>
+      <c r="G128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>173</v>
+      </c>
+      <c r="E129" t="s">
+        <v>255</v>
+      </c>
+      <c r="F129">
+        <v>103</v>
+      </c>
+      <c r="G129" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130">
+        <v>103</v>
+      </c>
+      <c r="G130" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>173</v>
+      </c>
+      <c r="E131" t="s">
+        <v>257</v>
+      </c>
+      <c r="F131">
+        <v>103</v>
+      </c>
+      <c r="G131" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132">
+        <v>103</v>
+      </c>
+      <c r="G132" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>173</v>
+      </c>
+      <c r="E133" t="s">
+        <v>259</v>
+      </c>
+      <c r="F133">
+        <v>103</v>
+      </c>
+      <c r="G133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>173</v>
+      </c>
+      <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134">
+        <v>103</v>
+      </c>
+      <c r="G134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>173</v>
+      </c>
+      <c r="E135" t="s">
+        <v>261</v>
+      </c>
+      <c r="F135">
+        <v>103</v>
+      </c>
+      <c r="G135" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" t="s">
+        <v>265</v>
+      </c>
+      <c r="E136" t="s">
+        <v>254</v>
+      </c>
+      <c r="F136">
+        <v>104</v>
+      </c>
+      <c r="G136" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>173</v>
+      </c>
+      <c r="D137" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" t="s">
+        <v>255</v>
+      </c>
+      <c r="F137">
+        <v>104</v>
+      </c>
+      <c r="G137" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>173</v>
+      </c>
+      <c r="D138" t="s">
+        <v>265</v>
+      </c>
+      <c r="E138" t="s">
+        <v>256</v>
+      </c>
+      <c r="F138">
+        <v>104</v>
+      </c>
+      <c r="G138" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>173</v>
+      </c>
+      <c r="D139" t="s">
+        <v>265</v>
+      </c>
+      <c r="E139" t="s">
+        <v>257</v>
+      </c>
+      <c r="F139">
+        <v>104</v>
+      </c>
+      <c r="G139" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" t="s">
+        <v>265</v>
+      </c>
+      <c r="E140" t="s">
+        <v>258</v>
+      </c>
+      <c r="F140">
+        <v>104</v>
+      </c>
+      <c r="G140" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>173</v>
+      </c>
+      <c r="D141" t="s">
+        <v>265</v>
+      </c>
+      <c r="E141" t="s">
+        <v>259</v>
+      </c>
+      <c r="F141">
+        <v>104</v>
+      </c>
+      <c r="G141" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>173</v>
+      </c>
+      <c r="D142" t="s">
+        <v>265</v>
+      </c>
+      <c r="E142" t="s">
+        <v>260</v>
+      </c>
+      <c r="F142">
+        <v>104</v>
+      </c>
+      <c r="G142" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>173</v>
+      </c>
+      <c r="D143" t="s">
+        <v>265</v>
+      </c>
+      <c r="E143" t="s">
+        <v>261</v>
+      </c>
+      <c r="F143">
+        <v>104</v>
+      </c>
+      <c r="G143" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144" t="s">
+        <v>266</v>
+      </c>
+      <c r="E144" t="s">
+        <v>254</v>
+      </c>
+      <c r="F144">
+        <v>104</v>
+      </c>
+      <c r="G144" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>173</v>
+      </c>
+      <c r="D145" t="s">
+        <v>266</v>
+      </c>
+      <c r="E145" t="s">
+        <v>255</v>
+      </c>
+      <c r="F145">
+        <v>104</v>
+      </c>
+      <c r="G145" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>173</v>
+      </c>
+      <c r="D146" t="s">
+        <v>266</v>
+      </c>
+      <c r="E146" t="s">
+        <v>256</v>
+      </c>
+      <c r="F146">
+        <v>104</v>
+      </c>
+      <c r="G146" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>173</v>
+      </c>
+      <c r="D147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E147" t="s">
+        <v>257</v>
+      </c>
+      <c r="F147">
+        <v>104</v>
+      </c>
+      <c r="G147" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>173</v>
+      </c>
+      <c r="D148" t="s">
+        <v>266</v>
+      </c>
+      <c r="E148" t="s">
+        <v>258</v>
+      </c>
+      <c r="F148">
+        <v>104</v>
+      </c>
+      <c r="G148" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" t="s">
+        <v>266</v>
+      </c>
+      <c r="E149" t="s">
+        <v>259</v>
+      </c>
+      <c r="F149">
+        <v>104</v>
+      </c>
+      <c r="G149" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" t="s">
+        <v>266</v>
+      </c>
+      <c r="E150" t="s">
+        <v>260</v>
+      </c>
+      <c r="F150">
+        <v>104</v>
+      </c>
+      <c r="G150" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151" t="s">
+        <v>266</v>
+      </c>
+      <c r="E151" t="s">
+        <v>261</v>
+      </c>
+      <c r="F151">
+        <v>104</v>
+      </c>
+      <c r="G151" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>173</v>
+      </c>
+      <c r="E152" t="s">
+        <v>267</v>
+      </c>
+      <c r="F152">
+        <v>109</v>
+      </c>
+      <c r="G152" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>173</v>
+      </c>
+      <c r="E153" t="s">
+        <v>267</v>
+      </c>
+      <c r="F153">
+        <v>110</v>
+      </c>
+      <c r="G153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>166</v>
+      </c>
+      <c r="E154" t="s">
+        <v>267</v>
+      </c>
+      <c r="F154">
+        <v>110</v>
+      </c>
+      <c r="G154" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>173</v>
+      </c>
+      <c r="E155" t="s">
+        <v>271</v>
+      </c>
+      <c r="F155">
+        <v>111</v>
+      </c>
+      <c r="G155" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+      <c r="E156" t="s">
+        <v>272</v>
+      </c>
+      <c r="F156">
+        <v>111</v>
+      </c>
+      <c r="G156" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>173</v>
+      </c>
+      <c r="E157" t="s">
+        <v>271</v>
+      </c>
+      <c r="F157">
+        <v>112</v>
+      </c>
+      <c r="G157" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>173</v>
+      </c>
+      <c r="E158" t="s">
+        <v>272</v>
+      </c>
+      <c r="F158">
+        <v>112</v>
+      </c>
+      <c r="G158" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>166</v>
+      </c>
+      <c r="E159" t="s">
+        <v>271</v>
+      </c>
+      <c r="F159">
+        <v>112</v>
+      </c>
+      <c r="G159" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>166</v>
+      </c>
+      <c r="E160" t="s">
+        <v>272</v>
+      </c>
+      <c r="F160">
+        <v>112</v>
+      </c>
+      <c r="G160" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>173</v>
+      </c>
+      <c r="E161" t="s">
+        <v>274</v>
+      </c>
+      <c r="F161">
+        <v>113</v>
+      </c>
+      <c r="G161" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162" t="s">
+        <v>276</v>
+      </c>
+      <c r="F162">
+        <v>114</v>
+      </c>
+      <c r="G162" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" t="s">
+        <v>277</v>
+      </c>
+      <c r="F163">
+        <v>114</v>
+      </c>
+      <c r="G163" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>173</v>
+      </c>
+      <c r="E164" t="s">
+        <v>278</v>
+      </c>
+      <c r="F164">
+        <v>114</v>
+      </c>
+      <c r="G164" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>173</v>
+      </c>
+      <c r="E165" t="s">
+        <v>279</v>
+      </c>
+      <c r="F165">
+        <v>114</v>
+      </c>
+      <c r="G165" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>173</v>
+      </c>
+      <c r="E166" t="s">
+        <v>280</v>
+      </c>
+      <c r="F166">
+        <v>114</v>
+      </c>
+      <c r="G166" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>173</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F167">
+        <v>119</v>
+      </c>
+      <c r="G167" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>173</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F168">
+        <v>120</v>
+      </c>
+      <c r="G168" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>173</v>
+      </c>
+      <c r="E169" t="s">
+        <v>283</v>
+      </c>
+      <c r="F169">
+        <v>120</v>
+      </c>
+      <c r="G169" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>173</v>
+      </c>
+      <c r="E170" t="s">
+        <v>286</v>
+      </c>
+      <c r="F170">
+        <v>121</v>
+      </c>
+      <c r="G170" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>173</v>
+      </c>
+      <c r="E171" t="s">
+        <v>287</v>
+      </c>
+      <c r="F171">
+        <v>121</v>
+      </c>
+      <c r="G171" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+      <c r="E172" t="s">
+        <v>286</v>
+      </c>
+      <c r="F172">
+        <v>122</v>
+      </c>
+      <c r="G172" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>173</v>
+      </c>
+      <c r="E173" t="s">
+        <v>287</v>
+      </c>
+      <c r="F173">
+        <v>122</v>
+      </c>
+      <c r="G173" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>173</v>
+      </c>
+      <c r="E174" t="s">
+        <v>291</v>
+      </c>
+      <c r="F174">
+        <v>123</v>
+      </c>
+      <c r="G174" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>173</v>
+      </c>
+      <c r="E175" t="s">
+        <v>291</v>
+      </c>
+      <c r="F175">
+        <v>124</v>
+      </c>
+      <c r="G175" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>173</v>
+      </c>
+      <c r="E176" t="s">
+        <v>293</v>
+      </c>
+      <c r="F176">
+        <v>125</v>
+      </c>
+      <c r="G176" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s">
+        <v>173</v>
+      </c>
+      <c r="E177" t="s">
+        <v>294</v>
+      </c>
+      <c r="F177">
+        <v>125</v>
+      </c>
+      <c r="G177" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>173</v>
+      </c>
+      <c r="E178" t="s">
+        <v>295</v>
+      </c>
+      <c r="F178">
+        <v>125</v>
+      </c>
+      <c r="G178" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>173</v>
+      </c>
+      <c r="E179" t="s">
+        <v>296</v>
+      </c>
+      <c r="F179">
+        <v>125</v>
+      </c>
+      <c r="G179" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="C180" t="s">
+        <v>173</v>
+      </c>
+      <c r="E180" t="s">
+        <v>297</v>
+      </c>
+      <c r="F180">
+        <v>125</v>
+      </c>
+      <c r="G180" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>173</v>
+      </c>
+      <c r="E181" t="s">
+        <v>298</v>
+      </c>
+      <c r="F181">
+        <v>125</v>
+      </c>
+      <c r="G181" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>173</v>
+      </c>
+      <c r="E182" t="s">
+        <v>299</v>
+      </c>
+      <c r="F182">
+        <v>125</v>
+      </c>
+      <c r="G182" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>173</v>
+      </c>
+      <c r="E183" t="s">
+        <v>301</v>
+      </c>
+      <c r="F183">
+        <v>126</v>
+      </c>
+      <c r="G183" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>166</v>
+      </c>
+      <c r="E184" t="s">
+        <v>299</v>
+      </c>
+      <c r="F184">
+        <v>126</v>
+      </c>
+      <c r="G184" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>173</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F185">
+        <v>130</v>
+      </c>
+      <c r="G185" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>173</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F186">
+        <v>131</v>
+      </c>
+      <c r="G186" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>173</v>
+      </c>
+      <c r="E187" t="s">
+        <v>304</v>
+      </c>
+      <c r="F187">
+        <v>132</v>
+      </c>
+      <c r="G187" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>173</v>
+      </c>
+      <c r="E188" t="s">
+        <v>304</v>
+      </c>
+      <c r="F188">
+        <v>133</v>
+      </c>
+      <c r="G188" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>173</v>
+      </c>
+      <c r="E189" t="s">
+        <v>308</v>
+      </c>
+      <c r="F189">
+        <v>134</v>
+      </c>
+      <c r="G189" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>173</v>
+      </c>
+      <c r="E190" t="s">
+        <v>309</v>
+      </c>
+      <c r="F190">
+        <v>134</v>
+      </c>
+      <c r="G190" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>173</v>
+      </c>
+      <c r="E191" t="s">
+        <v>310</v>
+      </c>
+      <c r="F191">
+        <v>134</v>
+      </c>
+      <c r="G191" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>166</v>
+      </c>
+      <c r="E192" t="s">
+        <v>308</v>
+      </c>
+      <c r="F192">
+        <v>134</v>
+      </c>
+      <c r="G192" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>166</v>
+      </c>
+      <c r="E193" t="s">
+        <v>309</v>
+      </c>
+      <c r="F193">
+        <v>134</v>
+      </c>
+      <c r="G193" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>166</v>
+      </c>
+      <c r="E194" t="s">
+        <v>310</v>
+      </c>
+      <c r="F194">
+        <v>134</v>
+      </c>
+      <c r="G194" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>173</v>
+      </c>
+      <c r="E195" t="s">
+        <v>308</v>
+      </c>
+      <c r="F195">
+        <v>134</v>
+      </c>
+      <c r="G195" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>173</v>
+      </c>
+      <c r="E196" t="s">
+        <v>309</v>
+      </c>
+      <c r="F196">
+        <v>134</v>
+      </c>
+      <c r="G196" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>173</v>
+      </c>
+      <c r="E197" t="s">
+        <v>310</v>
+      </c>
+      <c r="F197">
+        <v>134</v>
+      </c>
+      <c r="G197" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>166</v>
+      </c>
+      <c r="E198" t="s">
+        <v>308</v>
+      </c>
+      <c r="F198">
+        <v>134</v>
+      </c>
+      <c r="G198" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>166</v>
+      </c>
+      <c r="E199" t="s">
+        <v>309</v>
+      </c>
+      <c r="F199">
+        <v>134</v>
+      </c>
+      <c r="G199" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>166</v>
+      </c>
+      <c r="E200" t="s">
+        <v>310</v>
+      </c>
+      <c r="F200">
+        <v>134</v>
+      </c>
+      <c r="G200" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>173</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F201">
+        <v>137</v>
+      </c>
+      <c r="G201" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>173</v>
+      </c>
+      <c r="E202" t="s">
+        <v>312</v>
+      </c>
+      <c r="F202">
+        <v>137</v>
+      </c>
+      <c r="G202" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>173</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F203">
+        <v>138</v>
+      </c>
+      <c r="G203" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>173</v>
+      </c>
+      <c r="E204" t="s">
+        <v>312</v>
+      </c>
+      <c r="F204">
+        <v>138</v>
+      </c>
+      <c r="G204" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>173</v>
+      </c>
+      <c r="E205" t="s">
+        <v>314</v>
+      </c>
+      <c r="F205">
+        <v>141</v>
+      </c>
+      <c r="G205" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>173</v>
+      </c>
+      <c r="E206" t="s">
+        <v>314</v>
+      </c>
+      <c r="F206">
+        <v>142</v>
+      </c>
+      <c r="G206" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>173</v>
+      </c>
+      <c r="E207" t="s">
+        <v>317</v>
+      </c>
+      <c r="F207">
+        <v>142</v>
+      </c>
+      <c r="G207" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>173</v>
+      </c>
+      <c r="E208" t="s">
+        <v>318</v>
+      </c>
+      <c r="F208">
+        <v>143</v>
+      </c>
+      <c r="G208" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>173</v>
+      </c>
+      <c r="E209" t="s">
+        <v>318</v>
+      </c>
+      <c r="F209">
+        <v>144</v>
+      </c>
+      <c r="G209" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>173</v>
+      </c>
+      <c r="E210" t="s">
+        <v>318</v>
+      </c>
+      <c r="F210">
+        <v>144</v>
+      </c>
+      <c r="G210" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>173</v>
+      </c>
+      <c r="E211" t="s">
+        <v>322</v>
+      </c>
+      <c r="F211">
+        <v>145</v>
+      </c>
+      <c r="G211" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>173</v>
+      </c>
+      <c r="E212" t="s">
+        <v>323</v>
+      </c>
+      <c r="F212">
+        <v>145</v>
+      </c>
+      <c r="G212" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>173</v>
+      </c>
+      <c r="E213" t="s">
+        <v>324</v>
+      </c>
+      <c r="F213">
+        <v>145</v>
+      </c>
+      <c r="G213" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>173</v>
+      </c>
+      <c r="E214" t="s">
+        <v>325</v>
+      </c>
+      <c r="F214">
+        <v>145</v>
+      </c>
+      <c r="G214" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>173</v>
+      </c>
+      <c r="E215" t="s">
+        <v>326</v>
+      </c>
+      <c r="F215">
+        <v>145</v>
+      </c>
+      <c r="G215" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>173</v>
+      </c>
+      <c r="E216" t="s">
+        <v>327</v>
+      </c>
+      <c r="F216">
+        <v>145</v>
+      </c>
+      <c r="G216" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>173</v>
+      </c>
+      <c r="E217" t="s">
+        <v>328</v>
+      </c>
+      <c r="F217">
+        <v>145</v>
+      </c>
+      <c r="G217" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>173</v>
+      </c>
+      <c r="E218" t="s">
+        <v>329</v>
+      </c>
+      <c r="F218">
+        <v>145</v>
+      </c>
+      <c r="G218" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>173</v>
+      </c>
+      <c r="E219" t="s">
+        <v>322</v>
+      </c>
+      <c r="F219">
+        <v>146</v>
+      </c>
+      <c r="G219" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="C220" t="s">
+        <v>173</v>
+      </c>
+      <c r="E220" t="s">
+        <v>323</v>
+      </c>
+      <c r="F220">
+        <v>146</v>
+      </c>
+      <c r="G220" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>173</v>
+      </c>
+      <c r="E221" t="s">
+        <v>324</v>
+      </c>
+      <c r="F221">
+        <v>146</v>
+      </c>
+      <c r="G221" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="C222" t="s">
+        <v>173</v>
+      </c>
+      <c r="E222" t="s">
+        <v>325</v>
+      </c>
+      <c r="F222">
+        <v>146</v>
+      </c>
+      <c r="G222" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="C223" t="s">
+        <v>173</v>
+      </c>
+      <c r="E223" t="s">
+        <v>326</v>
+      </c>
+      <c r="F223">
+        <v>146</v>
+      </c>
+      <c r="G223" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="C224" t="s">
+        <v>173</v>
+      </c>
+      <c r="E224" t="s">
+        <v>327</v>
+      </c>
+      <c r="F224">
+        <v>146</v>
+      </c>
+      <c r="G224" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="C225" t="s">
+        <v>173</v>
+      </c>
+      <c r="E225" t="s">
+        <v>328</v>
+      </c>
+      <c r="F225">
+        <v>146</v>
+      </c>
+      <c r="G225" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="C226" t="s">
+        <v>173</v>
+      </c>
+      <c r="E226" t="s">
+        <v>329</v>
+      </c>
+      <c r="F226">
+        <v>146</v>
+      </c>
+      <c r="G226" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>173</v>
+      </c>
+      <c r="E227" t="s">
+        <v>330</v>
+      </c>
+      <c r="F227">
+        <v>146</v>
+      </c>
+      <c r="G227" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>173</v>
+      </c>
+      <c r="E228" t="s">
+        <v>331</v>
+      </c>
+      <c r="F228">
+        <v>146</v>
+      </c>
+      <c r="G228" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="C229" t="s">
+        <v>173</v>
+      </c>
+      <c r="E229" t="s">
+        <v>334</v>
+      </c>
+      <c r="F229">
+        <v>147</v>
+      </c>
+      <c r="G229" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>173</v>
+      </c>
+      <c r="E230" t="s">
+        <v>335</v>
+      </c>
+      <c r="F230">
+        <v>148</v>
+      </c>
+      <c r="G230" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>173</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F231">
+        <v>153</v>
+      </c>
+      <c r="G231" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>173</v>
+      </c>
+      <c r="E232" t="s">
+        <v>338</v>
+      </c>
+      <c r="F232">
+        <v>153</v>
+      </c>
+      <c r="G232" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>173</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F233">
+        <v>154</v>
+      </c>
+      <c r="G233" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>173</v>
+      </c>
+      <c r="E234" t="s">
+        <v>338</v>
+      </c>
+      <c r="F234">
+        <v>154</v>
+      </c>
+      <c r="G234" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>173</v>
+      </c>
+      <c r="E235" t="s">
+        <v>339</v>
+      </c>
+      <c r="F235">
+        <v>154</v>
+      </c>
+      <c r="G235" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="C236" t="s">
+        <v>173</v>
+      </c>
+      <c r="E236" t="s">
+        <v>340</v>
+      </c>
+      <c r="F236">
+        <v>154</v>
+      </c>
+      <c r="G236" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>173</v>
+      </c>
+      <c r="E237" t="s">
+        <v>343</v>
+      </c>
+      <c r="F237">
+        <v>155</v>
+      </c>
+      <c r="G237" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="C238" t="s">
+        <v>173</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F238">
+        <v>156</v>
+      </c>
+      <c r="G238" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="C239" t="s">
+        <v>166</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F239">
+        <v>156</v>
+      </c>
+      <c r="G239" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="C240" t="s">
+        <v>173</v>
+      </c>
+      <c r="D240" t="s">
+        <v>346</v>
+      </c>
+      <c r="E240" t="s">
+        <v>343</v>
+      </c>
+      <c r="F240">
+        <v>156</v>
+      </c>
+      <c r="G240" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>2</v>
+      </c>
+      <c r="C241" t="s">
+        <v>166</v>
+      </c>
+      <c r="D241" t="s">
+        <v>346</v>
+      </c>
+      <c r="E241" t="s">
+        <v>343</v>
+      </c>
+      <c r="F241">
+        <v>156</v>
+      </c>
+      <c r="G241" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>173</v>
+      </c>
+      <c r="E242" t="s">
+        <v>347</v>
+      </c>
+      <c r="F242">
+        <v>157</v>
+      </c>
+      <c r="G242" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>2</v>
+      </c>
+      <c r="C243" t="s">
+        <v>173</v>
+      </c>
+      <c r="E243" t="s">
+        <v>347</v>
+      </c>
+      <c r="F243">
+        <v>158</v>
+      </c>
+      <c r="G243" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>2</v>
+      </c>
+      <c r="C244" t="s">
+        <v>166</v>
+      </c>
+      <c r="E244" t="s">
+        <v>347</v>
+      </c>
+      <c r="F244">
+        <v>158</v>
+      </c>
+      <c r="G244" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>173</v>
+      </c>
+      <c r="E245" t="s">
+        <v>351</v>
+      </c>
+      <c r="F245">
+        <v>159</v>
+      </c>
+      <c r="G245" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>173</v>
+      </c>
+      <c r="E246" t="s">
+        <v>352</v>
+      </c>
+      <c r="F246">
+        <v>159</v>
+      </c>
+      <c r="G246" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>173</v>
+      </c>
+      <c r="E247" t="s">
+        <v>353</v>
+      </c>
+      <c r="F247">
+        <v>159</v>
+      </c>
+      <c r="G247" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>2</v>
+      </c>
+      <c r="C248" t="s">
+        <v>173</v>
+      </c>
+      <c r="E248" t="s">
+        <v>351</v>
+      </c>
+      <c r="F248">
+        <v>160</v>
+      </c>
+      <c r="G248" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="C249" t="s">
+        <v>173</v>
+      </c>
+      <c r="E249" t="s">
+        <v>352</v>
+      </c>
+      <c r="F249">
+        <v>160</v>
+      </c>
+      <c r="G249" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="C250" t="s">
+        <v>173</v>
+      </c>
+      <c r="E250" t="s">
+        <v>353</v>
+      </c>
+      <c r="F250">
+        <v>160</v>
+      </c>
+      <c r="G250" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>173</v>
+      </c>
+      <c r="E251" t="s">
+        <v>357</v>
+      </c>
+      <c r="F251">
+        <v>160</v>
+      </c>
+      <c r="G251" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>2</v>
+      </c>
+      <c r="C252" t="s">
+        <v>173</v>
+      </c>
+      <c r="E252" t="s">
+        <v>355</v>
+      </c>
+      <c r="F252">
+        <v>160</v>
+      </c>
+      <c r="G252" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="C253" t="s">
+        <v>173</v>
+      </c>
+      <c r="E253" t="s">
+        <v>356</v>
+      </c>
+      <c r="F253">
+        <v>160</v>
+      </c>
+      <c r="G253" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="C254" t="s">
+        <v>166</v>
+      </c>
+      <c r="E254" t="s">
+        <v>351</v>
+      </c>
+      <c r="F254">
+        <v>160</v>
+      </c>
+      <c r="G254" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="C255" t="s">
+        <v>166</v>
+      </c>
+      <c r="E255" t="s">
+        <v>352</v>
+      </c>
+      <c r="F255">
+        <v>160</v>
+      </c>
+      <c r="G255" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="C256" t="s">
+        <v>166</v>
+      </c>
+      <c r="E256" t="s">
+        <v>353</v>
+      </c>
+      <c r="F256">
+        <v>160</v>
+      </c>
+      <c r="G256" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="C257" t="s">
+        <v>166</v>
+      </c>
+      <c r="E257" t="s">
+        <v>357</v>
+      </c>
+      <c r="F257">
+        <v>160</v>
+      </c>
+      <c r="G257" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="C258" t="s">
+        <v>166</v>
+      </c>
+      <c r="E258" t="s">
+        <v>355</v>
+      </c>
+      <c r="F258">
+        <v>160</v>
+      </c>
+      <c r="G258" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="C259" t="s">
+        <v>166</v>
+      </c>
+      <c r="E259" t="s">
+        <v>356</v>
+      </c>
+      <c r="F259">
+        <v>160</v>
+      </c>
+      <c r="G259" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="C260" t="s">
+        <v>173</v>
+      </c>
+      <c r="E260" t="s">
+        <v>359</v>
+      </c>
+      <c r="F260">
+        <v>161</v>
+      </c>
+      <c r="G260" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="C261" t="s">
+        <v>173</v>
+      </c>
+      <c r="E261" t="s">
+        <v>360</v>
+      </c>
+      <c r="F261">
+        <v>161</v>
+      </c>
+      <c r="G261" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>166</v>
+      </c>
+      <c r="E262" t="s">
+        <v>359</v>
+      </c>
+      <c r="F262">
+        <v>161</v>
+      </c>
+      <c r="G262" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>2</v>
+      </c>
+      <c r="C263" t="s">
+        <v>166</v>
+      </c>
+      <c r="E263" t="s">
+        <v>360</v>
+      </c>
+      <c r="F263">
+        <v>161</v>
+      </c>
+      <c r="G263" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="C264" t="s">
+        <v>173</v>
+      </c>
+      <c r="E264" t="s">
+        <v>362</v>
+      </c>
+      <c r="F264">
+        <v>162</v>
+      </c>
+      <c r="G264" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="C265" t="s">
+        <v>166</v>
+      </c>
+      <c r="E265" t="s">
+        <v>362</v>
+      </c>
+      <c r="F265">
+        <v>162</v>
+      </c>
+      <c r="G265" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xlsx/lu_coho.xlsx
+++ b/xlsx/lu_coho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/daniel_auerbach_dfw_wa_gov/Documents/code/framr/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="912" documentId="8_{21B4543F-78BB-4220-988B-83DC0936FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3EFA380-FEC2-4D2C-8A2B-701E2F6BE4DA}"/>
+  <xr:revisionPtr revIDLastSave="944" documentId="8_{21B4543F-78BB-4220-988B-83DC0936FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5406A12-C97D-4928-94B4-156FF84C315F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DF93BC40-F587-4C27-AB72-1CFE9880D23F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="355">
   <si>
     <t>area_code</t>
   </si>
@@ -488,42 +488,21 @@
     <t>Fishery</t>
   </si>
   <si>
-    <t>Gear_type</t>
-  </si>
-  <si>
     <t>Catch_Area</t>
   </si>
   <si>
-    <t>Troll</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>A1-Ast Troll</t>
-  </si>
-  <si>
     <t>Area2TrlNT</t>
   </si>
   <si>
     <t>Area2TrlTR</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Area3TrlNT</t>
   </si>
   <si>
     <t>Area3TrlTR</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>4A</t>
   </si>
   <si>
@@ -536,15 +515,6 @@
     <t>A4/4BTrlTR</t>
   </si>
   <si>
-    <t>Hook&amp;Line</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>6C</t>
   </si>
   <si>
@@ -554,12 +524,6 @@
     <t>6B</t>
   </si>
   <si>
-    <t>A5-6CTroll</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
     <t>2G</t>
   </si>
   <si>
@@ -755,9 +719,6 @@
     <t>A6-7ANetNT</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>7A</t>
   </si>
   <si>
@@ -791,9 +752,6 @@
     <t>77C</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Ar 8 NetNT</t>
   </si>
   <si>
@@ -1073,9 +1031,6 @@
     <t>Ar9ANetTR</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>!TEST</t>
   </si>
   <si>
@@ -1128,6 +1083,24 @@
   </si>
   <si>
     <t>name_drop</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>A1-Ast 41</t>
+  </si>
+  <si>
+    <t>A5-6C41</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>10, 42</t>
+  </si>
+  <si>
+    <t>1,5,11,12,13,14,15,16,19,20,49</t>
   </si>
 </sst>
 </file>
@@ -2887,13 +2860,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2903,209 +2876,209 @@
         <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" t="s">
-        <v>151</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>152</v>
+      <c r="C2">
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>152</v>
+      <c r="C3">
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>152</v>
+      <c r="C4">
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>152</v>
+      <c r="C5">
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>152</v>
+      <c r="C6">
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>152</v>
+      <c r="C7">
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>152</v>
+      <c r="C8">
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F8">
         <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>152</v>
+      <c r="C9">
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F9">
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>152</v>
+      <c r="C10">
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>152</v>
+      <c r="C11">
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F11">
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>152</v>
+      <c r="C12">
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F12">
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3113,16 +3086,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3130,16 +3103,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F14">
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3147,101 +3120,101 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F15">
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>152</v>
+      <c r="C16">
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>152</v>
+      <c r="C17">
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>152</v>
+      <c r="C18">
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F18">
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>152</v>
+      <c r="C19">
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F19">
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>152</v>
+      <c r="C20">
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F20">
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3249,16 +3222,16 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3266,16 +3239,16 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3283,16 +3256,16 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F23">
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3300,16 +3273,16 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F24">
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3317,16 +3290,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F25">
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3334,16 +3307,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F26">
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3351,16 +3324,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F27">
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3368,16 +3341,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F28">
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3385,16 +3358,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F29">
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3402,16 +3375,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F30">
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3419,16 +3392,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F31">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3436,16 +3409,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F32">
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3453,16 +3426,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F33">
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3470,16 +3443,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F34">
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3487,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F35">
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3504,16 +3477,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>354</v>
+      </c>
+      <c r="E36" t="s">
         <v>173</v>
-      </c>
-      <c r="E36" t="s">
-        <v>185</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3521,16 +3494,16 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F37">
         <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3538,16 +3511,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F38">
         <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3555,19 +3528,19 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F39">
         <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3575,19 +3548,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" t="s">
         <v>173</v>
-      </c>
-      <c r="E40" t="s">
-        <v>185</v>
       </c>
       <c r="F40">
         <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3595,19 +3568,19 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F41">
         <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3615,19 +3588,19 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F42">
         <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3635,16 +3608,16 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F43">
         <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3652,16 +3625,16 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F44">
         <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3669,19 +3642,19 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F45">
         <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3689,16 +3662,16 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F46">
         <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3706,16 +3679,16 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F47">
         <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3723,16 +3696,16 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F48">
         <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3740,16 +3713,16 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E49" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F49">
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -3757,16 +3730,16 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F50">
         <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3774,16 +3747,16 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F51">
         <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -3791,16 +3764,16 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F52">
         <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -3808,16 +3781,16 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F53">
         <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -3825,16 +3798,16 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F54">
         <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3842,16 +3815,16 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F55">
         <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -3859,16 +3832,16 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F56">
         <v>71</v>
       </c>
       <c r="G56" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -3876,16 +3849,16 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F57">
         <v>71</v>
       </c>
       <c r="G57" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -3893,16 +3866,16 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F58">
         <v>71</v>
       </c>
       <c r="G58" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3910,16 +3883,16 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F59">
         <v>71</v>
       </c>
       <c r="G59" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -3927,16 +3900,16 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F60">
         <v>71</v>
       </c>
       <c r="G60" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3944,19 +3917,19 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F61">
         <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -3964,19 +3937,19 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E62" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F62">
         <v>72</v>
       </c>
       <c r="G62" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -3984,19 +3957,19 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F63">
         <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -4004,19 +3977,19 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F64">
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4024,19 +3997,19 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F65">
         <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4044,16 +4017,16 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F66">
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4061,16 +4034,16 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F67">
         <v>74</v>
       </c>
       <c r="G67" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4078,16 +4051,16 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F68">
         <v>75</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4095,16 +4068,16 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F69">
         <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4112,16 +4085,16 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F70">
         <v>77</v>
       </c>
       <c r="G70" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -4129,16 +4102,16 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E71" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F71">
         <v>77</v>
       </c>
       <c r="G71" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4146,16 +4119,16 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F72">
         <v>77</v>
       </c>
       <c r="G72" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -4163,16 +4136,16 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F73">
         <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -4180,16 +4153,16 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E74" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F74">
         <v>77</v>
       </c>
       <c r="G74" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4197,16 +4170,16 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F75">
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4214,16 +4187,16 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="F76">
         <v>80</v>
       </c>
       <c r="G76" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4231,16 +4204,16 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F77">
         <v>80</v>
       </c>
       <c r="G77" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4248,16 +4221,16 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F78">
         <v>81</v>
       </c>
       <c r="G78" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -4265,16 +4238,16 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="F79">
         <v>81</v>
       </c>
       <c r="G79" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4282,16 +4255,16 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F80">
         <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4299,16 +4272,16 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F81">
         <v>82</v>
       </c>
       <c r="G81" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4316,16 +4289,16 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E82" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F82">
         <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4333,16 +4306,16 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F83">
         <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4350,16 +4323,16 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E84" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F84">
         <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4367,16 +4340,16 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F85">
         <v>83</v>
       </c>
       <c r="G85" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4384,16 +4357,16 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F86">
         <v>84</v>
       </c>
       <c r="G86" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -4401,16 +4374,16 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F87">
         <v>84</v>
       </c>
       <c r="G87" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4418,16 +4391,16 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E88" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F88">
         <v>85</v>
       </c>
       <c r="G88" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4435,16 +4408,16 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F89">
         <v>85</v>
       </c>
       <c r="G89" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4452,16 +4425,16 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E90" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F90">
         <v>85</v>
       </c>
       <c r="G90" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4469,16 +4442,16 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F91">
         <v>85</v>
       </c>
       <c r="G91" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4486,16 +4459,16 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F92">
         <v>85</v>
       </c>
       <c r="G92" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4503,16 +4476,16 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E93" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F93">
         <v>85</v>
       </c>
       <c r="G93" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4520,16 +4493,16 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E94" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F94">
         <v>85</v>
       </c>
       <c r="G94" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -4537,16 +4510,16 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E95" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F95">
         <v>85</v>
       </c>
       <c r="G95" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4554,16 +4527,16 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E96" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F96">
         <v>85</v>
       </c>
       <c r="G96" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4571,16 +4544,16 @@
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E97" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F97">
         <v>85</v>
       </c>
       <c r="G97" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -4588,16 +4561,16 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E98" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F98">
         <v>85</v>
       </c>
       <c r="G98" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -4605,16 +4578,16 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F99">
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -4622,16 +4595,16 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F100">
         <v>85</v>
       </c>
       <c r="G100" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -4639,16 +4612,16 @@
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F101">
         <v>85</v>
       </c>
       <c r="G101" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -4656,16 +4629,16 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E102" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F102">
         <v>85</v>
       </c>
       <c r="G102" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -4673,16 +4646,16 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E103" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F103">
         <v>85</v>
       </c>
       <c r="G103" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4690,16 +4663,16 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F104">
         <v>85</v>
       </c>
       <c r="G104" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -4707,16 +4680,16 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E105" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F105">
         <v>85</v>
       </c>
       <c r="G105" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -4724,16 +4697,16 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="F106">
         <v>87</v>
       </c>
       <c r="G106" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -4741,16 +4714,16 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E107" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F107">
         <v>87</v>
       </c>
       <c r="G107" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -4758,16 +4731,16 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E108" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F108">
         <v>87</v>
       </c>
       <c r="G108" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -4775,16 +4748,16 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="F109">
         <v>87</v>
       </c>
       <c r="G109" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -4792,16 +4765,16 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F110">
         <v>87</v>
       </c>
       <c r="G110" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -4809,16 +4782,16 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E111" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F111">
         <v>87</v>
       </c>
       <c r="G111" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -4826,16 +4799,16 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="F112">
         <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -4843,16 +4816,16 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E113" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F113">
         <v>87</v>
       </c>
       <c r="G113" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -4860,16 +4833,16 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E114" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F114">
         <v>87</v>
       </c>
       <c r="G114" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -4877,16 +4850,16 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="F115">
         <v>87</v>
       </c>
       <c r="G115" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -4894,16 +4867,16 @@
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E116" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F116">
         <v>87</v>
       </c>
       <c r="G116" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -4911,16 +4884,16 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E117" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F117">
         <v>87</v>
       </c>
       <c r="G117" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -4928,16 +4901,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E118" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F118">
         <v>96</v>
       </c>
       <c r="G118" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -4945,16 +4918,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E119" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F119">
         <v>96</v>
       </c>
       <c r="G119" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -4962,16 +4935,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F120">
         <v>96</v>
       </c>
       <c r="G120" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4979,16 +4952,16 @@
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E121" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F121">
         <v>97</v>
       </c>
       <c r="G121" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4996,16 +4969,16 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E122" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F122">
         <v>97</v>
       </c>
       <c r="G122" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -5013,16 +4986,16 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E123" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F123">
         <v>97</v>
       </c>
       <c r="G123" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -5030,16 +5003,16 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E124" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F124">
         <v>98</v>
       </c>
       <c r="G124" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -5047,16 +5020,16 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E125" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F125">
         <v>98</v>
       </c>
       <c r="G125" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -5064,16 +5037,16 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>251</v>
+        <v>349</v>
       </c>
       <c r="F126">
         <v>101</v>
       </c>
       <c r="G126" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -5081,16 +5054,16 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>251</v>
+        <v>349</v>
       </c>
       <c r="F127">
         <v>102</v>
       </c>
       <c r="G127" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -5098,16 +5071,16 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E128" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F128">
         <v>103</v>
       </c>
       <c r="G128" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5115,16 +5088,16 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F129">
         <v>103</v>
       </c>
       <c r="G129" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -5132,16 +5105,16 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E130" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F130">
         <v>103</v>
       </c>
       <c r="G130" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -5149,16 +5122,16 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F131">
         <v>103</v>
       </c>
       <c r="G131" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -5166,16 +5139,16 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E132" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F132">
         <v>103</v>
       </c>
       <c r="G132" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -5183,16 +5156,16 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F133">
         <v>103</v>
       </c>
       <c r="G133" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -5200,16 +5173,16 @@
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E134" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F134">
         <v>103</v>
       </c>
       <c r="G134" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -5217,16 +5190,16 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F135">
         <v>103</v>
       </c>
       <c r="G135" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5234,19 +5207,19 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D136" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E136" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F136">
         <v>104</v>
       </c>
       <c r="G136" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5254,19 +5227,19 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F137">
         <v>104</v>
       </c>
       <c r="G137" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5274,19 +5247,19 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E138" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F138">
         <v>104</v>
       </c>
       <c r="G138" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5294,19 +5267,19 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F139">
         <v>104</v>
       </c>
       <c r="G139" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -5314,19 +5287,19 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D140" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E140" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F140">
         <v>104</v>
       </c>
       <c r="G140" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -5334,19 +5307,19 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D141" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E141" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F141">
         <v>104</v>
       </c>
       <c r="G141" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5354,19 +5327,19 @@
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D142" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E142" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F142">
         <v>104</v>
       </c>
       <c r="G142" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -5374,19 +5347,19 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D143" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E143" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F143">
         <v>104</v>
       </c>
       <c r="G143" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -5394,19 +5367,19 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D144" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E144" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F144">
         <v>104</v>
       </c>
       <c r="G144" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5414,19 +5387,19 @@
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D145" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E145" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F145">
         <v>104</v>
       </c>
       <c r="G145" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5434,19 +5407,19 @@
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D146" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E146" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F146">
         <v>104</v>
       </c>
       <c r="G146" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -5454,19 +5427,19 @@
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D147" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E147" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F147">
         <v>104</v>
       </c>
       <c r="G147" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5474,19 +5447,19 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E148" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F148">
         <v>104</v>
       </c>
       <c r="G148" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -5494,19 +5467,19 @@
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D149" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E149" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F149">
         <v>104</v>
       </c>
       <c r="G149" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5514,19 +5487,19 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D150" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E150" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F150">
         <v>104</v>
       </c>
       <c r="G150" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5534,19 +5507,19 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D151" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E151" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F151">
         <v>104</v>
       </c>
       <c r="G151" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5554,16 +5527,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E152" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F152">
         <v>109</v>
       </c>
       <c r="G152" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5571,16 +5544,16 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E153" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F153">
         <v>110</v>
       </c>
       <c r="G153" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5588,16 +5561,16 @@
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E154" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F154">
         <v>110</v>
       </c>
       <c r="G154" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5605,16 +5578,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E155" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F155">
         <v>111</v>
       </c>
       <c r="G155" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5622,16 +5595,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E156" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F156">
         <v>111</v>
       </c>
       <c r="G156" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5639,16 +5612,16 @@
         <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E157" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F157">
         <v>112</v>
       </c>
       <c r="G157" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5656,16 +5629,16 @@
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E158" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F158">
         <v>112</v>
       </c>
       <c r="G158" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5673,16 +5646,16 @@
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E159" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F159">
         <v>112</v>
       </c>
       <c r="G159" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5690,16 +5663,16 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E160" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F160">
         <v>112</v>
       </c>
       <c r="G160" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5707,16 +5680,16 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E161" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F161">
         <v>113</v>
       </c>
       <c r="G161" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5724,16 +5697,16 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E162" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F162">
         <v>114</v>
       </c>
       <c r="G162" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -5741,16 +5714,16 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E163" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F163">
         <v>114</v>
       </c>
       <c r="G163" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5758,16 +5731,16 @@
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E164" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F164">
         <v>114</v>
       </c>
       <c r="G164" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5775,16 +5748,16 @@
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E165" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F165">
         <v>114</v>
       </c>
       <c r="G165" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5792,16 +5765,16 @@
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E166" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F166">
         <v>114</v>
       </c>
       <c r="G166" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5809,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>99</v>
@@ -5818,7 +5791,7 @@
         <v>119</v>
       </c>
       <c r="G167" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5826,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>99</v>
@@ -5835,7 +5808,7 @@
         <v>120</v>
       </c>
       <c r="G168" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5843,16 +5816,16 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E169" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F169">
         <v>120</v>
       </c>
       <c r="G169" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5860,16 +5833,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E170" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F170">
         <v>121</v>
       </c>
       <c r="G170" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5877,16 +5850,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E171" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F171">
         <v>121</v>
       </c>
       <c r="G171" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5894,16 +5867,16 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E172" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F172">
         <v>122</v>
       </c>
       <c r="G172" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5911,16 +5884,16 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E173" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F173">
         <v>122</v>
       </c>
       <c r="G173" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5928,16 +5901,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E174" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F174">
         <v>123</v>
       </c>
       <c r="G174" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5945,16 +5918,16 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E175" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F175">
         <v>124</v>
       </c>
       <c r="G175" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5962,16 +5935,16 @@
         <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E176" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F176">
         <v>125</v>
       </c>
       <c r="G176" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5979,16 +5952,16 @@
         <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E177" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F177">
         <v>125</v>
       </c>
       <c r="G177" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5996,16 +5969,16 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E178" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F178">
         <v>125</v>
       </c>
       <c r="G178" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -6013,16 +5986,16 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E179" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F179">
         <v>125</v>
       </c>
       <c r="G179" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -6030,16 +6003,16 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E180" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F180">
         <v>125</v>
       </c>
       <c r="G180" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -6047,16 +6020,16 @@
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E181" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F181">
         <v>125</v>
       </c>
       <c r="G181" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -6064,16 +6037,16 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E182" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F182">
         <v>125</v>
       </c>
       <c r="G182" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -6081,16 +6054,16 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E183" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F183">
         <v>126</v>
       </c>
       <c r="G183" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -6098,16 +6071,16 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E184" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F184">
         <v>126</v>
       </c>
       <c r="G184" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -6115,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>105</v>
@@ -6124,7 +6097,7 @@
         <v>130</v>
       </c>
       <c r="G185" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -6132,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>105</v>
@@ -6141,7 +6114,7 @@
         <v>131</v>
       </c>
       <c r="G186" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -6149,16 +6122,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E187" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F187">
         <v>132</v>
       </c>
       <c r="G187" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -6166,16 +6139,16 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E188" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F188">
         <v>133</v>
       </c>
       <c r="G188" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -6183,16 +6156,16 @@
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E189" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F189">
         <v>134</v>
       </c>
       <c r="G189" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6200,16 +6173,16 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E190" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F190">
         <v>134</v>
       </c>
       <c r="G190" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -6217,16 +6190,16 @@
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E191" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F191">
         <v>134</v>
       </c>
       <c r="G191" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -6234,16 +6207,16 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E192" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F192">
         <v>134</v>
       </c>
       <c r="G192" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -6251,16 +6224,16 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E193" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F193">
         <v>134</v>
       </c>
       <c r="G193" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -6268,16 +6241,16 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E194" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F194">
         <v>134</v>
       </c>
       <c r="G194" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -6285,16 +6258,16 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E195" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F195">
         <v>134</v>
       </c>
       <c r="G195" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -6302,16 +6275,16 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E196" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F196">
         <v>134</v>
       </c>
       <c r="G196" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -6319,16 +6292,16 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E197" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F197">
         <v>134</v>
       </c>
       <c r="G197" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -6336,16 +6309,16 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E198" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F198">
         <v>134</v>
       </c>
       <c r="G198" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -6353,16 +6326,16 @@
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E199" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F199">
         <v>134</v>
       </c>
       <c r="G199" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -6370,16 +6343,16 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E200" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F200">
         <v>134</v>
       </c>
       <c r="G200" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -6387,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>110</v>
@@ -6396,7 +6369,7 @@
         <v>137</v>
       </c>
       <c r="G201" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -6404,16 +6377,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E202" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="F202">
         <v>137</v>
       </c>
       <c r="G202" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -6421,7 +6394,7 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>110</v>
@@ -6430,7 +6403,7 @@
         <v>138</v>
       </c>
       <c r="G203" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -6438,16 +6411,16 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E204" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="F204">
         <v>138</v>
       </c>
       <c r="G204" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -6455,16 +6428,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E205" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F205">
         <v>141</v>
       </c>
       <c r="G205" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -6472,16 +6445,16 @@
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E206" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F206">
         <v>142</v>
       </c>
       <c r="G206" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -6489,16 +6462,16 @@
         <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E207" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F207">
         <v>142</v>
       </c>
       <c r="G207" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6506,16 +6479,16 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E208" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F208">
         <v>143</v>
       </c>
       <c r="G208" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6523,16 +6496,16 @@
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E209" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F209">
         <v>144</v>
       </c>
       <c r="G209" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6540,16 +6513,16 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E210" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F210">
         <v>144</v>
       </c>
       <c r="G210" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6557,16 +6530,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E211" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F211">
         <v>145</v>
       </c>
       <c r="G211" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6574,16 +6547,16 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E212" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F212">
         <v>145</v>
       </c>
       <c r="G212" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6591,16 +6564,16 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E213" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="F213">
         <v>145</v>
       </c>
       <c r="G213" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6608,16 +6581,16 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E214" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F214">
         <v>145</v>
       </c>
       <c r="G214" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6625,16 +6598,16 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E215" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F215">
         <v>145</v>
       </c>
       <c r="G215" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6642,16 +6615,16 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E216" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F216">
         <v>145</v>
       </c>
       <c r="G216" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6659,16 +6632,16 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E217" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F217">
         <v>145</v>
       </c>
       <c r="G217" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6676,16 +6649,16 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E218" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F218">
         <v>145</v>
       </c>
       <c r="G218" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6693,16 +6666,16 @@
         <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E219" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F219">
         <v>146</v>
       </c>
       <c r="G219" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6710,16 +6683,16 @@
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E220" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F220">
         <v>146</v>
       </c>
       <c r="G220" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6727,16 +6700,16 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E221" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="F221">
         <v>146</v>
       </c>
       <c r="G221" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6744,16 +6717,16 @@
         <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E222" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F222">
         <v>146</v>
       </c>
       <c r="G222" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6761,16 +6734,16 @@
         <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E223" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F223">
         <v>146</v>
       </c>
       <c r="G223" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6778,16 +6751,16 @@
         <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E224" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F224">
         <v>146</v>
       </c>
       <c r="G224" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6795,16 +6768,16 @@
         <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E225" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F225">
         <v>146</v>
       </c>
       <c r="G225" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -6812,16 +6785,16 @@
         <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E226" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F226">
         <v>146</v>
       </c>
       <c r="G226" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -6829,16 +6802,16 @@
         <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E227" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F227">
         <v>146</v>
       </c>
       <c r="G227" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -6846,16 +6819,16 @@
         <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E228" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F228">
         <v>146</v>
       </c>
       <c r="G228" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6863,16 +6836,16 @@
         <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E229" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="F229">
         <v>147</v>
       </c>
       <c r="G229" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6880,16 +6853,16 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E230" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F230">
         <v>148</v>
       </c>
       <c r="G230" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6897,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>124</v>
@@ -6906,7 +6879,7 @@
         <v>153</v>
       </c>
       <c r="G231" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6914,16 +6887,16 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E232" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F232">
         <v>153</v>
       </c>
       <c r="G232" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6931,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>124</v>
@@ -6940,7 +6913,7 @@
         <v>154</v>
       </c>
       <c r="G233" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6948,16 +6921,16 @@
         <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E234" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F234">
         <v>154</v>
       </c>
       <c r="G234" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6965,16 +6938,16 @@
         <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E235" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F235">
         <v>154</v>
       </c>
       <c r="G235" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6982,16 +6955,16 @@
         <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E236" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F236">
         <v>154</v>
       </c>
       <c r="G236" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6999,16 +6972,16 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E237" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F237">
         <v>155</v>
       </c>
       <c r="G237" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -7016,16 +6989,16 @@
         <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="F238">
         <v>156</v>
       </c>
       <c r="G238" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -7033,16 +7006,16 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="F239">
         <v>156</v>
       </c>
       <c r="G239" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7050,19 +7023,19 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E240" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F240">
         <v>156</v>
       </c>
       <c r="G240" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -7070,19 +7043,19 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="D241" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E241" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F241">
         <v>156</v>
       </c>
       <c r="G241" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -7090,16 +7063,16 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E242" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F242">
         <v>157</v>
       </c>
       <c r="G242" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -7107,16 +7080,16 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E243" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F243">
         <v>158</v>
       </c>
       <c r="G243" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -7124,16 +7097,16 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E244" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F244">
         <v>158</v>
       </c>
       <c r="G244" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7141,16 +7114,16 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E245" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F245">
         <v>159</v>
       </c>
       <c r="G245" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7158,16 +7131,16 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E246" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F246">
         <v>159</v>
       </c>
       <c r="G246" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7175,16 +7148,16 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E247" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F247">
         <v>159</v>
       </c>
       <c r="G247" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7192,16 +7165,16 @@
         <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E248" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F248">
         <v>160</v>
       </c>
       <c r="G248" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7209,16 +7182,16 @@
         <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E249" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F249">
         <v>160</v>
       </c>
       <c r="G249" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -7226,16 +7199,16 @@
         <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E250" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F250">
         <v>160</v>
       </c>
       <c r="G250" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7243,16 +7216,16 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E251" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F251">
         <v>160</v>
       </c>
       <c r="G251" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7260,16 +7233,16 @@
         <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E252" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="F252">
         <v>160</v>
       </c>
       <c r="G252" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7277,16 +7250,16 @@
         <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E253" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F253">
         <v>160</v>
       </c>
       <c r="G253" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7294,16 +7267,16 @@
         <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E254" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F254">
         <v>160</v>
       </c>
       <c r="G254" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7311,16 +7284,16 @@
         <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E255" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F255">
         <v>160</v>
       </c>
       <c r="G255" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7328,16 +7301,16 @@
         <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E256" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F256">
         <v>160</v>
       </c>
       <c r="G256" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7345,16 +7318,16 @@
         <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E257" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F257">
         <v>160</v>
       </c>
       <c r="G257" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7362,16 +7335,16 @@
         <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E258" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="F258">
         <v>160</v>
       </c>
       <c r="G258" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7379,16 +7352,16 @@
         <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E259" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F259">
         <v>160</v>
       </c>
       <c r="G259" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7396,16 +7369,16 @@
         <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E260" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="F260">
         <v>161</v>
       </c>
       <c r="G260" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7413,16 +7386,16 @@
         <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E261" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F261">
         <v>161</v>
       </c>
       <c r="G261" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7430,16 +7403,16 @@
         <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E262" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="F262">
         <v>161</v>
       </c>
       <c r="G262" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7447,16 +7420,16 @@
         <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E263" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F263">
         <v>161</v>
       </c>
       <c r="G263" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7464,16 +7437,16 @@
         <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="E264" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="F264">
         <v>162</v>
       </c>
       <c r="G264" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7481,16 +7454,16 @@
         <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="E265" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="F265">
         <v>162</v>
       </c>
       <c r="G265" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/lu_coho.xlsx
+++ b/xlsx/lu_coho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/daniel_auerbach_dfw_wa_gov/Documents/code/framr/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="944" documentId="8_{21B4543F-78BB-4220-988B-83DC0936FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5406A12-C97D-4928-94B4-156FF84C315F}"/>
+  <xr:revisionPtr revIDLastSave="1046" documentId="8_{21B4543F-78BB-4220-988B-83DC0936FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D932AA05-54A7-490F-9E96-A5A96842DF63}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DF93BC40-F587-4C27-AB72-1CFE9880D23F}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="WAFT_FRAM" sheetId="2" r:id="rId2"/>
     <sheet name="TOCAS_FRAM" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TOCAS_FRAM!$E$1:$E$265</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="348">
   <si>
     <t>area_code</t>
   </si>
@@ -491,81 +494,15 @@
     <t>Catch_Area</t>
   </si>
   <si>
-    <t>Area2TrlNT</t>
-  </si>
-  <si>
-    <t>Area2TrlTR</t>
-  </si>
-  <si>
     <t>Area3TrlNT</t>
   </si>
   <si>
     <t>Area3TrlTR</t>
   </si>
   <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>A4/4BTrlNT</t>
-  </si>
-  <si>
-    <t>A4/4BTrlTR</t>
-  </si>
-  <si>
-    <t>6C</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>2H</t>
-  </si>
-  <si>
-    <t>2K</t>
-  </si>
-  <si>
-    <t>2J</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>2N</t>
-  </si>
-  <si>
-    <t>2R</t>
-  </si>
-  <si>
-    <t>2T</t>
-  </si>
-  <si>
-    <t>2U</t>
-  </si>
-  <si>
     <t>WlpaBT Net</t>
   </si>
   <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
     <t>GryHbr Net</t>
   </si>
   <si>
@@ -662,21 +599,6 @@
     <t>Mak FW Net</t>
   </si>
   <si>
-    <t>A4B6CNetNT</t>
-  </si>
-  <si>
-    <t>A4B6CNetTR</t>
-  </si>
-  <si>
-    <t>6D</t>
-  </si>
-  <si>
-    <t>Ar6D NetNT</t>
-  </si>
-  <si>
-    <t>Ar6D NetTR</t>
-  </si>
-  <si>
     <t>76A</t>
   </si>
   <si>
@@ -716,33 +638,6 @@
     <t>WJDF T Net</t>
   </si>
   <si>
-    <t>A6-7ANetNT</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>A6-7ANetTR</t>
-  </si>
-  <si>
-    <t>A7BCDNetNT</t>
-  </si>
-  <si>
-    <t>7B</t>
-  </si>
-  <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>7D</t>
-  </si>
-  <si>
-    <t>A7BCDNetTR</t>
-  </si>
-  <si>
     <t>Nook R Net</t>
   </si>
   <si>
@@ -1025,9 +920,6 @@
     <t>Ar9ANetNT</t>
   </si>
   <si>
-    <t>9A</t>
-  </si>
-  <si>
     <t>Ar9ANetTR</t>
   </si>
   <si>
@@ -1091,9 +983,6 @@
     <t>A1-Ast 41</t>
   </si>
   <si>
-    <t>A5-6C41</t>
-  </si>
-  <si>
     <t>Gear</t>
   </si>
   <si>
@@ -1101,6 +990,99 @@
   </si>
   <si>
     <t>1,5,11,12,13,14,15,16,19,20,49</t>
+  </si>
+  <si>
+    <t>06A</t>
+  </si>
+  <si>
+    <t>06B</t>
+  </si>
+  <si>
+    <t>A5-06C41</t>
+  </si>
+  <si>
+    <t>06D</t>
+  </si>
+  <si>
+    <t>Ar06D NetNT</t>
+  </si>
+  <si>
+    <t>Ar06D NetTR</t>
+  </si>
+  <si>
+    <t>04A</t>
+  </si>
+  <si>
+    <t>A4/04BTrlNT</t>
+  </si>
+  <si>
+    <t>04B</t>
+  </si>
+  <si>
+    <t>A4/04BTrlTR</t>
+  </si>
+  <si>
+    <t>A04B06CNetNT</t>
+  </si>
+  <si>
+    <t>A04B06CNetTR</t>
+  </si>
+  <si>
+    <t>02A</t>
+  </si>
+  <si>
+    <t>02B</t>
+  </si>
+  <si>
+    <t>02C</t>
+  </si>
+  <si>
+    <t>02G</t>
+  </si>
+  <si>
+    <t>02H</t>
+  </si>
+  <si>
+    <t>02J</t>
+  </si>
+  <si>
+    <t>02K</t>
+  </si>
+  <si>
+    <t>Area02TrlNT</t>
+  </si>
+  <si>
+    <t>Area02TrlTR</t>
+  </si>
+  <si>
+    <t>A6-07ANetNT</t>
+  </si>
+  <si>
+    <t>07A</t>
+  </si>
+  <si>
+    <t>A6-07ANetTR</t>
+  </si>
+  <si>
+    <t>07B</t>
+  </si>
+  <si>
+    <t>A07BCDNetNT</t>
+  </si>
+  <si>
+    <t>A07BCDNetTR</t>
+  </si>
+  <si>
+    <t>07C</t>
+  </si>
+  <si>
+    <t>07D</t>
+  </si>
+  <si>
+    <t>07E</t>
+  </si>
+  <si>
+    <t>09A</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +2842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2876,13 +2858,13 @@
         <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -2891,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2908,7 +2890,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2925,7 +2907,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2942,7 +2924,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2959,7 +2941,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2976,7 +2958,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2993,7 +2975,7 @@
         <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3004,13 +2986,13 @@
         <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="F8">
         <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3021,13 +3003,13 @@
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
       <c r="F9">
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3044,7 +3026,7 @@
         <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3055,13 +3037,13 @@
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="F11">
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3072,13 +3054,13 @@
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
       <c r="F12">
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3086,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -3095,7 +3077,7 @@
         <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3103,16 +3085,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="F14">
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3120,16 +3102,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
       <c r="F15">
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3146,7 +3128,7 @@
         <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3163,7 +3145,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3174,13 +3156,13 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="F18">
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3191,13 +3173,13 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="F19">
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3208,13 +3190,13 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F20">
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3222,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
@@ -3231,7 +3213,7 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3239,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>67</v>
@@ -3248,7 +3230,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3256,16 +3238,16 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="F23">
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3273,16 +3255,16 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="F24">
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3290,16 +3272,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F25">
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3307,16 +3289,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="F26">
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3324,16 +3306,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="F27">
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3341,16 +3323,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c r="F28">
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3358,16 +3340,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="F29">
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3375,16 +3357,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F30">
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3392,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F31">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3409,16 +3391,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="F32">
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3426,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F33">
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3443,16 +3425,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F34">
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3460,16 +3442,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="F35">
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3477,16 +3459,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3494,16 +3476,16 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="F37">
         <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3511,16 +3493,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F38">
         <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3528,19 +3510,19 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="F39">
         <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3548,19 +3530,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="F40">
         <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3568,19 +3550,19 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F41">
         <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3588,19 +3570,19 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F42">
         <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3608,16 +3590,16 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="F43">
         <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3625,16 +3607,16 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F44">
         <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3642,19 +3624,19 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F45">
         <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3662,16 +3644,16 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E46" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="F46">
         <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3679,16 +3661,16 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F47">
         <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3696,16 +3678,16 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F48">
         <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3713,16 +3695,16 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E49" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="F49">
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -3730,16 +3712,16 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F50">
         <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3747,16 +3729,16 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F51">
         <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -3764,16 +3746,16 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F52">
         <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -3781,16 +3763,16 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E53" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F53">
         <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -3798,16 +3780,16 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F54">
         <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3815,16 +3797,16 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F55">
         <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -3832,16 +3814,16 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E56" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F56">
         <v>71</v>
       </c>
       <c r="G56" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -3849,16 +3831,16 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F57">
         <v>71</v>
       </c>
       <c r="G57" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -3866,16 +3848,16 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E58" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F58">
         <v>71</v>
       </c>
       <c r="G58" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3883,16 +3865,16 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F59">
         <v>71</v>
       </c>
       <c r="G59" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -3900,16 +3882,16 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F60">
         <v>71</v>
       </c>
       <c r="G60" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3917,19 +3899,19 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F61">
         <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -3937,19 +3919,19 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F62">
         <v>72</v>
       </c>
       <c r="G62" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -3957,19 +3939,19 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F63">
         <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -3977,19 +3959,19 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D64" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F64">
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3997,19 +3979,19 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F65">
         <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4017,16 +3999,16 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F66">
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4034,16 +4016,16 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F67">
         <v>74</v>
       </c>
       <c r="G67" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4051,16 +4033,16 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E68" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F68">
         <v>75</v>
       </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4068,16 +4050,16 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E69" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F69">
         <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4085,16 +4067,16 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F70">
         <v>77</v>
       </c>
       <c r="G70" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -4102,16 +4084,16 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E71" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F71">
         <v>77</v>
       </c>
       <c r="G71" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4119,16 +4101,16 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F72">
         <v>77</v>
       </c>
       <c r="G72" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -4136,16 +4118,16 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F73">
         <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -4153,16 +4135,16 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F74">
         <v>77</v>
       </c>
       <c r="G74" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4170,16 +4152,16 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
       <c r="F75">
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4187,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>66</v>
@@ -4196,7 +4178,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4204,16 +4186,16 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F77">
         <v>80</v>
       </c>
       <c r="G77" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4221,16 +4203,16 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
       <c r="F78">
         <v>81</v>
       </c>
       <c r="G78" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -4238,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>66</v>
@@ -4247,7 +4229,7 @@
         <v>81</v>
       </c>
       <c r="G79" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4255,16 +4237,16 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F80">
         <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4272,16 +4254,16 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E81" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="F81">
         <v>82</v>
       </c>
       <c r="G81" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4289,16 +4271,16 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="F82">
         <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4306,16 +4288,16 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="F83">
         <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4323,16 +4305,16 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="F84">
         <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4340,16 +4322,16 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="F85">
         <v>83</v>
       </c>
       <c r="G85" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4357,16 +4339,16 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E86" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F86">
         <v>84</v>
       </c>
       <c r="G86" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -4374,16 +4356,16 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F87">
         <v>84</v>
       </c>
       <c r="G87" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4391,16 +4373,16 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F88">
         <v>85</v>
       </c>
       <c r="G88" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4408,16 +4390,16 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E89" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F89">
         <v>85</v>
       </c>
       <c r="G89" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4425,16 +4407,16 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E90" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F90">
         <v>85</v>
       </c>
       <c r="G90" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4442,16 +4424,16 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E91" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F91">
         <v>85</v>
       </c>
       <c r="G91" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4459,16 +4441,16 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E92" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="F92">
         <v>85</v>
       </c>
       <c r="G92" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4476,16 +4458,16 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E93" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="F93">
         <v>85</v>
       </c>
       <c r="G93" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4493,16 +4475,16 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E94" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="F94">
         <v>85</v>
       </c>
       <c r="G94" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -4510,16 +4492,16 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F95">
         <v>85</v>
       </c>
       <c r="G95" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4527,16 +4509,16 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E96" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F96">
         <v>85</v>
       </c>
       <c r="G96" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4544,16 +4526,16 @@
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E97" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F97">
         <v>85</v>
       </c>
       <c r="G97" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -4561,16 +4543,16 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E98" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F98">
         <v>85</v>
       </c>
       <c r="G98" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -4578,16 +4560,16 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E99" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F99">
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -4595,16 +4577,16 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E100" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F100">
         <v>85</v>
       </c>
       <c r="G100" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -4612,16 +4594,16 @@
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E101" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="F101">
         <v>85</v>
       </c>
       <c r="G101" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -4629,16 +4611,16 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E102" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="F102">
         <v>85</v>
       </c>
       <c r="G102" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -4646,16 +4628,16 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E103" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="F103">
         <v>85</v>
       </c>
       <c r="G103" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4663,16 +4645,16 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E104" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F104">
         <v>85</v>
       </c>
       <c r="G104" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -4680,16 +4662,16 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E105" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F105">
         <v>85</v>
       </c>
       <c r="G105" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -4697,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>67</v>
@@ -4706,7 +4688,7 @@
         <v>87</v>
       </c>
       <c r="G106" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -4714,16 +4696,16 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="F107">
         <v>87</v>
       </c>
       <c r="G107" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -4731,16 +4713,16 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E108" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="F108">
         <v>87</v>
       </c>
       <c r="G108" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -4748,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>68</v>
@@ -4757,7 +4739,7 @@
         <v>87</v>
       </c>
       <c r="G109" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -4765,16 +4747,16 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="F110">
         <v>87</v>
       </c>
       <c r="G110" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -4782,16 +4764,16 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E111" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="F111">
         <v>87</v>
       </c>
       <c r="G111" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -4799,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>67</v>
@@ -4808,7 +4790,7 @@
         <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -4816,16 +4798,16 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E113" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="F113">
         <v>87</v>
       </c>
       <c r="G113" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -4833,16 +4815,16 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E114" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="F114">
         <v>87</v>
       </c>
       <c r="G114" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -4850,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>68</v>
@@ -4859,7 +4841,7 @@
         <v>87</v>
       </c>
       <c r="G115" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -4867,16 +4849,16 @@
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="F116">
         <v>87</v>
       </c>
       <c r="G116" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -4884,16 +4866,16 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E117" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="F117">
         <v>87</v>
       </c>
       <c r="G117" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -4901,16 +4883,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="F118">
         <v>96</v>
       </c>
       <c r="G118" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -4918,16 +4900,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E119" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="F119">
         <v>96</v>
       </c>
       <c r="G119" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -4935,16 +4917,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="F120">
         <v>96</v>
       </c>
       <c r="G120" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4952,16 +4934,16 @@
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="F121">
         <v>97</v>
       </c>
       <c r="G121" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4969,16 +4951,16 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E122" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="F122">
         <v>97</v>
       </c>
       <c r="G122" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4986,16 +4968,16 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="F123">
         <v>97</v>
       </c>
       <c r="G123" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -5003,16 +4985,16 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E124" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="F124">
         <v>98</v>
       </c>
       <c r="G124" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -5020,16 +5002,16 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="F125">
         <v>98</v>
       </c>
       <c r="G125" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -5037,16 +5019,16 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="F126">
         <v>101</v>
       </c>
       <c r="G126" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -5054,16 +5036,16 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="F127">
         <v>102</v>
       </c>
       <c r="G127" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -5071,16 +5053,16 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E128" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="F128">
         <v>103</v>
       </c>
       <c r="G128" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5088,16 +5070,16 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="F129">
         <v>103</v>
       </c>
       <c r="G129" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -5105,16 +5087,16 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E130" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="F130">
         <v>103</v>
       </c>
       <c r="G130" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -5122,16 +5104,16 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="F131">
         <v>103</v>
       </c>
       <c r="G131" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -5139,16 +5121,16 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E132" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="F132">
         <v>103</v>
       </c>
       <c r="G132" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -5156,16 +5138,16 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="F133">
         <v>103</v>
       </c>
       <c r="G133" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -5173,16 +5155,16 @@
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E134" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="F134">
         <v>103</v>
       </c>
       <c r="G134" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -5190,16 +5172,16 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="F135">
         <v>103</v>
       </c>
       <c r="G135" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5207,19 +5189,19 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E136" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="F136">
         <v>104</v>
       </c>
       <c r="G136" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5227,19 +5209,19 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D137" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E137" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="F137">
         <v>104</v>
       </c>
       <c r="G137" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5247,19 +5229,19 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D138" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E138" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="F138">
         <v>104</v>
       </c>
       <c r="G138" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5267,19 +5249,19 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D139" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E139" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="F139">
         <v>104</v>
       </c>
       <c r="G139" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -5287,19 +5269,19 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D140" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E140" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="F140">
         <v>104</v>
       </c>
       <c r="G140" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -5307,19 +5289,19 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D141" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E141" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="F141">
         <v>104</v>
       </c>
       <c r="G141" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5327,19 +5309,19 @@
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D142" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E142" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="F142">
         <v>104</v>
       </c>
       <c r="G142" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -5347,19 +5329,19 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D143" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E143" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="F143">
         <v>104</v>
       </c>
       <c r="G143" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -5367,19 +5349,19 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D144" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E144" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="F144">
         <v>104</v>
       </c>
       <c r="G144" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5387,19 +5369,19 @@
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D145" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E145" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="F145">
         <v>104</v>
       </c>
       <c r="G145" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5407,19 +5389,19 @@
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D146" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E146" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="F146">
         <v>104</v>
       </c>
       <c r="G146" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -5427,19 +5409,19 @@
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D147" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E147" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="F147">
         <v>104</v>
       </c>
       <c r="G147" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5447,19 +5429,19 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D148" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E148" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="F148">
         <v>104</v>
       </c>
       <c r="G148" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -5467,19 +5449,19 @@
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D149" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E149" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="F149">
         <v>104</v>
       </c>
       <c r="G149" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5487,19 +5469,19 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D150" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E150" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="F150">
         <v>104</v>
       </c>
       <c r="G150" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5507,19 +5489,19 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D151" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E151" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="F151">
         <v>104</v>
       </c>
       <c r="G151" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5527,16 +5509,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E152" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="F152">
         <v>109</v>
       </c>
       <c r="G152" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5544,16 +5526,16 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E153" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="F153">
         <v>110</v>
       </c>
       <c r="G153" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5561,16 +5543,16 @@
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E154" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="F154">
         <v>110</v>
       </c>
       <c r="G154" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5578,16 +5560,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E155" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="F155">
         <v>111</v>
       </c>
       <c r="G155" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5595,16 +5577,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E156" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="F156">
         <v>111</v>
       </c>
       <c r="G156" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5612,16 +5594,16 @@
         <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E157" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="F157">
         <v>112</v>
       </c>
       <c r="G157" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5629,16 +5611,16 @@
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E158" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="F158">
         <v>112</v>
       </c>
       <c r="G158" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5646,16 +5628,16 @@
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E159" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="F159">
         <v>112</v>
       </c>
       <c r="G159" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5663,16 +5645,16 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E160" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="F160">
         <v>112</v>
       </c>
       <c r="G160" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5680,16 +5662,16 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E161" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="F161">
         <v>113</v>
       </c>
       <c r="G161" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5697,16 +5679,16 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E162" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="F162">
         <v>114</v>
       </c>
       <c r="G162" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -5714,16 +5696,16 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E163" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="F163">
         <v>114</v>
       </c>
       <c r="G163" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5731,16 +5713,16 @@
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E164" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="F164">
         <v>114</v>
       </c>
       <c r="G164" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5748,16 +5730,16 @@
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E165" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="F165">
         <v>114</v>
       </c>
       <c r="G165" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5765,16 +5747,16 @@
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E166" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F166">
         <v>114</v>
       </c>
       <c r="G166" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5782,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>99</v>
@@ -5791,7 +5773,7 @@
         <v>119</v>
       </c>
       <c r="G167" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5799,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>99</v>
@@ -5808,7 +5790,7 @@
         <v>120</v>
       </c>
       <c r="G168" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5816,16 +5798,16 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E169" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="F169">
         <v>120</v>
       </c>
       <c r="G169" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5833,16 +5815,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E170" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="F170">
         <v>121</v>
       </c>
       <c r="G170" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5850,16 +5832,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E171" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="F171">
         <v>121</v>
       </c>
       <c r="G171" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5867,16 +5849,16 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E172" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="F172">
         <v>122</v>
       </c>
       <c r="G172" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5884,16 +5866,16 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E173" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="F173">
         <v>122</v>
       </c>
       <c r="G173" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5901,16 +5883,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E174" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="F174">
         <v>123</v>
       </c>
       <c r="G174" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5918,16 +5900,16 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E175" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="F175">
         <v>124</v>
       </c>
       <c r="G175" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5935,16 +5917,16 @@
         <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E176" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="F176">
         <v>125</v>
       </c>
       <c r="G176" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5952,16 +5934,16 @@
         <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E177" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="F177">
         <v>125</v>
       </c>
       <c r="G177" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5969,16 +5951,16 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E178" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="F178">
         <v>125</v>
       </c>
       <c r="G178" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5986,16 +5968,16 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E179" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="F179">
         <v>125</v>
       </c>
       <c r="G179" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -6003,16 +5985,16 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E180" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="F180">
         <v>125</v>
       </c>
       <c r="G180" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -6020,16 +6002,16 @@
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E181" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="F181">
         <v>125</v>
       </c>
       <c r="G181" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -6037,16 +6019,16 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E182" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F182">
         <v>125</v>
       </c>
       <c r="G182" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -6054,16 +6036,16 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E183" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="F183">
         <v>126</v>
       </c>
       <c r="G183" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -6071,16 +6053,16 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E184" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F184">
         <v>126</v>
       </c>
       <c r="G184" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -6088,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>105</v>
@@ -6097,7 +6079,7 @@
         <v>130</v>
       </c>
       <c r="G185" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -6105,7 +6087,7 @@
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>105</v>
@@ -6114,7 +6096,7 @@
         <v>131</v>
       </c>
       <c r="G186" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -6122,16 +6104,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E187" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="F187">
         <v>132</v>
       </c>
       <c r="G187" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -6139,16 +6121,16 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E188" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="F188">
         <v>133</v>
       </c>
       <c r="G188" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -6156,16 +6138,16 @@
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E189" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F189">
         <v>134</v>
       </c>
       <c r="G189" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6173,16 +6155,16 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E190" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="F190">
         <v>134</v>
       </c>
       <c r="G190" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -6190,16 +6172,16 @@
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E191" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F191">
         <v>134</v>
       </c>
       <c r="G191" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -6207,16 +6189,16 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E192" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F192">
         <v>134</v>
       </c>
       <c r="G192" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -6224,16 +6206,16 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E193" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="F193">
         <v>134</v>
       </c>
       <c r="G193" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -6241,16 +6223,16 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E194" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F194">
         <v>134</v>
       </c>
       <c r="G194" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -6258,16 +6240,16 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E195" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F195">
         <v>134</v>
       </c>
       <c r="G195" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -6275,16 +6257,16 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E196" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="F196">
         <v>134</v>
       </c>
       <c r="G196" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -6292,16 +6274,16 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E197" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F197">
         <v>134</v>
       </c>
       <c r="G197" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -6309,16 +6291,16 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E198" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F198">
         <v>134</v>
       </c>
       <c r="G198" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -6326,16 +6308,16 @@
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E199" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="F199">
         <v>134</v>
       </c>
       <c r="G199" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -6343,16 +6325,16 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E200" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F200">
         <v>134</v>
       </c>
       <c r="G200" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -6360,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>110</v>
@@ -6369,7 +6351,7 @@
         <v>137</v>
       </c>
       <c r="G201" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -6377,16 +6359,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E202" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="F202">
         <v>137</v>
       </c>
       <c r="G202" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -6394,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>110</v>
@@ -6403,7 +6385,7 @@
         <v>138</v>
       </c>
       <c r="G203" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -6411,16 +6393,16 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E204" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="F204">
         <v>138</v>
       </c>
       <c r="G204" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -6428,16 +6410,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E205" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="F205">
         <v>141</v>
       </c>
       <c r="G205" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -6445,16 +6427,16 @@
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E206" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="F206">
         <v>142</v>
       </c>
       <c r="G206" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -6462,16 +6444,16 @@
         <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E207" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="F207">
         <v>142</v>
       </c>
       <c r="G207" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6479,16 +6461,16 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E208" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F208">
         <v>143</v>
       </c>
       <c r="G208" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6496,16 +6478,16 @@
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E209" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F209">
         <v>144</v>
       </c>
       <c r="G209" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6513,16 +6495,16 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E210" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F210">
         <v>144</v>
       </c>
       <c r="G210" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6530,16 +6512,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E211" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="F211">
         <v>145</v>
       </c>
       <c r="G211" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6547,16 +6529,16 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E212" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="F212">
         <v>145</v>
       </c>
       <c r="G212" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6564,16 +6546,16 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E213" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="F213">
         <v>145</v>
       </c>
       <c r="G213" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6581,16 +6563,16 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E214" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="F214">
         <v>145</v>
       </c>
       <c r="G214" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6598,16 +6580,16 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E215" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="F215">
         <v>145</v>
       </c>
       <c r="G215" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6615,16 +6597,16 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E216" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="F216">
         <v>145</v>
       </c>
       <c r="G216" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6632,16 +6614,16 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E217" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="F217">
         <v>145</v>
       </c>
       <c r="G217" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6649,16 +6631,16 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E218" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F218">
         <v>145</v>
       </c>
       <c r="G218" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6666,16 +6648,16 @@
         <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E219" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="F219">
         <v>146</v>
       </c>
       <c r="G219" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6683,16 +6665,16 @@
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E220" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="F220">
         <v>146</v>
       </c>
       <c r="G220" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6700,16 +6682,16 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E221" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="F221">
         <v>146</v>
       </c>
       <c r="G221" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6717,16 +6699,16 @@
         <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E222" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="F222">
         <v>146</v>
       </c>
       <c r="G222" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6734,16 +6716,16 @@
         <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E223" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="F223">
         <v>146</v>
       </c>
       <c r="G223" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6751,16 +6733,16 @@
         <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E224" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="F224">
         <v>146</v>
       </c>
       <c r="G224" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6768,16 +6750,16 @@
         <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E225" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="F225">
         <v>146</v>
       </c>
       <c r="G225" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -6785,16 +6767,16 @@
         <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E226" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F226">
         <v>146</v>
       </c>
       <c r="G226" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -6802,16 +6784,16 @@
         <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E227" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="F227">
         <v>146</v>
       </c>
       <c r="G227" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -6819,16 +6801,16 @@
         <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E228" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F228">
         <v>146</v>
       </c>
       <c r="G228" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6836,16 +6818,16 @@
         <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E229" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="F229">
         <v>147</v>
       </c>
       <c r="G229" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6853,16 +6835,16 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E230" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="F230">
         <v>148</v>
       </c>
       <c r="G230" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6870,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>124</v>
@@ -6879,7 +6861,7 @@
         <v>153</v>
       </c>
       <c r="G231" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6887,16 +6869,16 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E232" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="F232">
         <v>153</v>
       </c>
       <c r="G232" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6904,7 +6886,7 @@
         <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>124</v>
@@ -6913,7 +6895,7 @@
         <v>154</v>
       </c>
       <c r="G233" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6921,16 +6903,16 @@
         <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E234" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="F234">
         <v>154</v>
       </c>
       <c r="G234" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6938,16 +6920,16 @@
         <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E235" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="F235">
         <v>154</v>
       </c>
       <c r="G235" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6955,16 +6937,16 @@
         <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E236" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="F236">
         <v>154</v>
       </c>
       <c r="G236" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6972,16 +6954,16 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E237" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="F237">
         <v>155</v>
       </c>
       <c r="G237" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -6989,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>79</v>
@@ -6998,7 +6980,7 @@
         <v>156</v>
       </c>
       <c r="G238" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -7006,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>79</v>
@@ -7015,7 +6997,7 @@
         <v>156</v>
       </c>
       <c r="G239" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7023,19 +7005,19 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D240" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="E240" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="F240">
         <v>156</v>
       </c>
       <c r="G240" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -7043,19 +7025,19 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="D241" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="E241" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="F241">
         <v>156</v>
       </c>
       <c r="G241" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -7063,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E242" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="F242">
         <v>157</v>
       </c>
       <c r="G242" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -7080,16 +7062,16 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E243" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="F243">
         <v>158</v>
       </c>
       <c r="G243" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -7097,16 +7079,16 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E244" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="F244">
         <v>158</v>
       </c>
       <c r="G244" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7114,16 +7096,16 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E245" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="F245">
         <v>159</v>
       </c>
       <c r="G245" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7131,16 +7113,16 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E246" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="F246">
         <v>159</v>
       </c>
       <c r="G246" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7148,16 +7130,16 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E247" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="F247">
         <v>159</v>
       </c>
       <c r="G247" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7165,16 +7147,16 @@
         <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E248" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="F248">
         <v>160</v>
       </c>
       <c r="G248" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7182,16 +7164,16 @@
         <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E249" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="F249">
         <v>160</v>
       </c>
       <c r="G249" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -7199,16 +7181,16 @@
         <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E250" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="F250">
         <v>160</v>
       </c>
       <c r="G250" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7216,16 +7198,16 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E251" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="F251">
         <v>160</v>
       </c>
       <c r="G251" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7233,16 +7215,16 @@
         <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E252" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="F252">
         <v>160</v>
       </c>
       <c r="G252" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7250,16 +7232,16 @@
         <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E253" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="F253">
         <v>160</v>
       </c>
       <c r="G253" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7267,16 +7249,16 @@
         <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E254" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="F254">
         <v>160</v>
       </c>
       <c r="G254" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7284,16 +7266,16 @@
         <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E255" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="F255">
         <v>160</v>
       </c>
       <c r="G255" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7301,16 +7283,16 @@
         <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E256" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="F256">
         <v>160</v>
       </c>
       <c r="G256" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7318,16 +7300,16 @@
         <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E257" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="F257">
         <v>160</v>
       </c>
       <c r="G257" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7335,16 +7317,16 @@
         <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E258" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="F258">
         <v>160</v>
       </c>
       <c r="G258" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7352,16 +7334,16 @@
         <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E259" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="F259">
         <v>160</v>
       </c>
       <c r="G259" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7369,16 +7351,16 @@
         <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E260" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="F260">
         <v>161</v>
       </c>
       <c r="G260" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7386,16 +7368,16 @@
         <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E261" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="F261">
         <v>161</v>
       </c>
       <c r="G261" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7403,16 +7385,16 @@
         <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E262" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="F262">
         <v>161</v>
       </c>
       <c r="G262" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7420,16 +7402,16 @@
         <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E263" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="F263">
         <v>161</v>
       </c>
       <c r="G263" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7437,16 +7419,16 @@
         <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E264" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="F264">
         <v>162</v>
       </c>
       <c r="G264" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7454,16 +7436,16 @@
         <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E265" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="F265">
         <v>162</v>
       </c>
       <c r="G265" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/lu_coho.xlsx
+++ b/xlsx/lu_coho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/daniel_auerbach_dfw_wa_gov/Documents/code/framr/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1046" documentId="8_{21B4543F-78BB-4220-988B-83DC0936FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D932AA05-54A7-490F-9E96-A5A96842DF63}"/>
+  <xr:revisionPtr revIDLastSave="1071" documentId="8_{21B4543F-78BB-4220-988B-83DC0936FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1849C25B-8FEF-4DAE-8E41-C9AEF9966D2C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DF93BC40-F587-4C27-AB72-1CFE9880D23F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="349">
   <si>
     <t>area_code</t>
   </si>
@@ -692,9 +692,6 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>8A</t>
-  </si>
-  <si>
     <t>Ar8A NetNT</t>
   </si>
   <si>
@@ -704,12 +701,6 @@
     <t>Ar8D NetNT</t>
   </si>
   <si>
-    <t>8D</t>
-  </si>
-  <si>
-    <t>8d</t>
-  </si>
-  <si>
     <t>Ar8D NetTR</t>
   </si>
   <si>
@@ -923,9 +914,6 @@
     <t>Ar9ANetTR</t>
   </si>
   <si>
-    <t>!TEST</t>
-  </si>
-  <si>
     <t>12A</t>
   </si>
   <si>
@@ -1083,6 +1071,21 @@
   </si>
   <si>
     <t>09A</t>
+  </si>
+  <si>
+    <t>08A</t>
+  </si>
+  <si>
+    <t>08D</t>
+  </si>
+  <si>
+    <t>08d</t>
+  </si>
+  <si>
+    <t>C&amp;SF,COMM,ORGN,TEST,TKHM</t>
+  </si>
+  <si>
+    <t>COMM,TKHM</t>
   </si>
 </sst>
 </file>
@@ -2841,8 +2844,8 @@
   <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D242" sqref="D242:D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2861,7 +2864,7 @@
         <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D1" t="s">
         <v>213</v>
@@ -2873,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2883,6 +2886,9 @@
       <c r="C2">
         <v>41</v>
       </c>
+      <c r="D2" t="s">
+        <v>347</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2900,6 +2906,9 @@
       <c r="C3">
         <v>41</v>
       </c>
+      <c r="D3" t="s">
+        <v>347</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2917,6 +2926,9 @@
       <c r="C4">
         <v>41</v>
       </c>
+      <c r="D4" t="s">
+        <v>347</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2924,7 +2936,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2934,6 +2946,9 @@
       <c r="C5">
         <v>41</v>
       </c>
+      <c r="D5" t="s">
+        <v>347</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2950,6 +2965,9 @@
       </c>
       <c r="C6">
         <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>347</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -2968,6 +2986,9 @@
       <c r="C7">
         <v>41</v>
       </c>
+      <c r="D7" t="s">
+        <v>347</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +2996,7 @@
         <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2985,14 +3006,17 @@
       <c r="C8">
         <v>41</v>
       </c>
+      <c r="D8" t="s">
+        <v>347</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F8">
         <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3002,14 +3026,17 @@
       <c r="C9">
         <v>41</v>
       </c>
+      <c r="D9" t="s">
+        <v>347</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F9">
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3019,6 +3046,9 @@
       <c r="C10">
         <v>41</v>
       </c>
+      <c r="D10" t="s">
+        <v>347</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3026,7 +3056,7 @@
         <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3036,14 +3066,17 @@
       <c r="C11">
         <v>41</v>
       </c>
+      <c r="D11" t="s">
+        <v>347</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F11">
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3053,14 +3086,17 @@
       <c r="C12">
         <v>41</v>
       </c>
+      <c r="D12" t="s">
+        <v>347</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F12">
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3068,7 +3104,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -3077,7 +3116,7 @@
         <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3085,16 +3124,19 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F14">
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3102,16 +3144,19 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D15" t="s">
+        <v>347</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F15">
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3121,6 +3166,9 @@
       <c r="C16">
         <v>41</v>
       </c>
+      <c r="D16" t="s">
+        <v>347</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
@@ -3128,7 +3176,7 @@
         <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3138,6 +3186,9 @@
       <c r="C17">
         <v>41</v>
       </c>
+      <c r="D17" t="s">
+        <v>347</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
@@ -3145,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3155,14 +3206,17 @@
       <c r="C18">
         <v>41</v>
       </c>
+      <c r="D18" t="s">
+        <v>347</v>
+      </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F18">
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3172,14 +3226,17 @@
       <c r="C19">
         <v>41</v>
       </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F19">
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3189,6 +3246,9 @@
       <c r="C20">
         <v>41</v>
       </c>
+      <c r="D20" t="s">
+        <v>347</v>
+      </c>
       <c r="E20" t="s">
         <v>142</v>
       </c>
@@ -3196,7 +3256,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3204,7 +3264,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D21" t="s">
+        <v>347</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
@@ -3213,7 +3276,7 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3221,7 +3284,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D22" t="s">
+        <v>347</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>67</v>
@@ -3230,7 +3296,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3238,16 +3304,19 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D23" t="s">
+        <v>347</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F23">
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3255,16 +3324,19 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D24" t="s">
+        <v>347</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F24">
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3272,7 +3344,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D25" t="s">
+        <v>347</v>
       </c>
       <c r="E25" t="s">
         <v>142</v>
@@ -3281,7 +3356,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3289,10 +3364,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D26" t="s">
+        <v>347</v>
       </c>
       <c r="E26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F26">
         <v>47</v>
@@ -3306,10 +3384,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D27" t="s">
+        <v>347</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F27">
         <v>47</v>
@@ -3323,10 +3404,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D28" t="s">
+        <v>347</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F28">
         <v>47</v>
@@ -3340,10 +3424,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D29" t="s">
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F29">
         <v>47</v>
@@ -3357,7 +3444,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D30" t="s">
+        <v>347</v>
       </c>
       <c r="E30" t="s">
         <v>143</v>
@@ -3374,7 +3464,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D31" t="s">
+        <v>347</v>
       </c>
       <c r="E31" t="s">
         <v>144</v>
@@ -3391,7 +3484,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D32" t="s">
+        <v>347</v>
       </c>
       <c r="E32" t="s">
         <v>145</v>
@@ -3408,7 +3504,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D33" t="s">
+        <v>347</v>
       </c>
       <c r="E33" t="s">
         <v>146</v>
@@ -3425,7 +3524,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D34" t="s">
+        <v>347</v>
       </c>
       <c r="E34" t="s">
         <v>147</v>
@@ -3442,10 +3544,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D35" t="s">
+        <v>347</v>
       </c>
       <c r="E35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F35">
         <v>50</v>
@@ -3459,10 +3564,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D36" t="s">
+        <v>347</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F36">
         <v>50</v>
@@ -3476,10 +3584,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D37" t="s">
+        <v>347</v>
       </c>
       <c r="E37" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F37">
         <v>50</v>
@@ -3493,7 +3604,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D38" t="s">
+        <v>347</v>
       </c>
       <c r="E38" t="s">
         <v>148</v>
@@ -3513,10 +3627,13 @@
         <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D39" t="s">
+        <v>347</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F39">
         <v>52</v>
@@ -3533,10 +3650,13 @@
         <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D40" t="s">
+        <v>347</v>
       </c>
       <c r="E40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F40">
         <v>52</v>
@@ -3553,7 +3673,10 @@
         <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D41" t="s">
+        <v>347</v>
       </c>
       <c r="E41" t="s">
         <v>148</v>
@@ -3573,7 +3696,10 @@
         <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D42" t="s">
+        <v>347</v>
       </c>
       <c r="E42" t="s">
         <v>157</v>
@@ -3590,10 +3716,13 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D43" t="s">
+        <v>347</v>
       </c>
       <c r="E43" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F43">
         <v>55</v>
@@ -3607,7 +3736,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D44" t="s">
+        <v>347</v>
       </c>
       <c r="E44" t="s">
         <v>160</v>
@@ -3627,7 +3759,10 @@
         <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D45" t="s">
+        <v>347</v>
       </c>
       <c r="E45" t="s">
         <v>157</v>
@@ -3644,7 +3779,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D46" t="s">
+        <v>347</v>
       </c>
       <c r="E46" t="s">
         <v>163</v>
@@ -3661,7 +3799,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D47" t="s">
+        <v>347</v>
       </c>
       <c r="E47" t="s">
         <v>164</v>
@@ -3678,7 +3819,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D48" t="s">
+        <v>347</v>
       </c>
       <c r="E48" t="s">
         <v>165</v>
@@ -3695,7 +3839,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D49" t="s">
+        <v>347</v>
       </c>
       <c r="E49" t="s">
         <v>163</v>
@@ -3712,7 +3859,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D50" t="s">
+        <v>347</v>
       </c>
       <c r="E50" t="s">
         <v>164</v>
@@ -3729,7 +3879,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D51" t="s">
+        <v>347</v>
       </c>
       <c r="E51" t="s">
         <v>165</v>
@@ -3746,7 +3899,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D52" t="s">
+        <v>347</v>
       </c>
       <c r="E52" t="s">
         <v>167</v>
@@ -3763,7 +3919,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D53" t="s">
+        <v>347</v>
       </c>
       <c r="E53" t="s">
         <v>168</v>
@@ -3780,7 +3939,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D54" t="s">
+        <v>347</v>
       </c>
       <c r="E54" t="s">
         <v>167</v>
@@ -3797,7 +3959,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D55" t="s">
+        <v>347</v>
       </c>
       <c r="E55" t="s">
         <v>168</v>
@@ -3814,7 +3979,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D56" t="s">
+        <v>347</v>
       </c>
       <c r="E56" t="s">
         <v>172</v>
@@ -3831,7 +3999,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D57" t="s">
+        <v>347</v>
       </c>
       <c r="E57" t="s">
         <v>173</v>
@@ -3848,7 +4019,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D58" t="s">
+        <v>347</v>
       </c>
       <c r="E58" t="s">
         <v>174</v>
@@ -3865,7 +4039,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D59" t="s">
+        <v>347</v>
       </c>
       <c r="E59" t="s">
         <v>175</v>
@@ -3882,7 +4059,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D60" t="s">
+        <v>347</v>
       </c>
       <c r="E60" t="s">
         <v>176</v>
@@ -3899,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
         <v>178</v>
@@ -3919,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D62" t="s">
         <v>178</v>
@@ -3939,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D63" t="s">
         <v>178</v>
@@ -3959,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D64" t="s">
         <v>178</v>
@@ -3979,7 +4159,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D65" t="s">
         <v>178</v>
@@ -3999,7 +4179,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D66" t="s">
+        <v>347</v>
       </c>
       <c r="E66" t="s">
         <v>179</v>
@@ -4016,7 +4199,10 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D67" t="s">
+        <v>347</v>
       </c>
       <c r="E67" t="s">
         <v>179</v>
@@ -4033,7 +4219,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D68" t="s">
+        <v>347</v>
       </c>
       <c r="E68" t="s">
         <v>179</v>
@@ -4050,7 +4239,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D69" t="s">
+        <v>347</v>
       </c>
       <c r="E69" t="s">
         <v>182</v>
@@ -4067,7 +4259,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D70" t="s">
+        <v>347</v>
       </c>
       <c r="E70" t="s">
         <v>183</v>
@@ -4084,7 +4279,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D71" t="s">
+        <v>347</v>
       </c>
       <c r="E71" t="s">
         <v>184</v>
@@ -4101,7 +4299,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D72" t="s">
+        <v>347</v>
       </c>
       <c r="E72" t="s">
         <v>182</v>
@@ -4118,7 +4319,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D73" t="s">
+        <v>347</v>
       </c>
       <c r="E73" t="s">
         <v>183</v>
@@ -4135,7 +4339,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D74" t="s">
+        <v>347</v>
       </c>
       <c r="E74" t="s">
         <v>184</v>
@@ -4152,16 +4359,19 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D75" t="s">
+        <v>347</v>
       </c>
       <c r="E75" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F75">
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4169,7 +4379,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D76" t="s">
+        <v>347</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>66</v>
@@ -4178,7 +4391,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4186,7 +4399,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D77" t="s">
+        <v>347</v>
       </c>
       <c r="E77" t="s">
         <v>142</v>
@@ -4195,7 +4411,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4203,16 +4419,19 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D78" t="s">
+        <v>347</v>
       </c>
       <c r="E78" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F78">
         <v>81</v>
       </c>
       <c r="G78" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -4220,7 +4439,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D79" t="s">
+        <v>347</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>66</v>
@@ -4229,7 +4451,7 @@
         <v>81</v>
       </c>
       <c r="G79" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4237,7 +4459,10 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D80" t="s">
+        <v>347</v>
       </c>
       <c r="E80" t="s">
         <v>142</v>
@@ -4246,7 +4471,7 @@
         <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4254,16 +4479,19 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
+        <v>312</v>
+      </c>
+      <c r="D81" t="s">
+        <v>347</v>
+      </c>
+      <c r="E81" t="s">
         <v>316</v>
-      </c>
-      <c r="E81" t="s">
-        <v>320</v>
       </c>
       <c r="F81">
         <v>82</v>
       </c>
       <c r="G81" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4271,16 +4499,19 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
+        <v>312</v>
+      </c>
+      <c r="D82" t="s">
+        <v>347</v>
+      </c>
+      <c r="E82" t="s">
         <v>316</v>
-      </c>
-      <c r="E82" t="s">
-        <v>320</v>
       </c>
       <c r="F82">
         <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4288,7 +4519,10 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D83" t="s">
+        <v>347</v>
       </c>
       <c r="E83" t="s">
         <v>186</v>
@@ -4297,7 +4531,7 @@
         <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4305,16 +4539,19 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D84" t="s">
+        <v>347</v>
       </c>
       <c r="E84" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F84">
         <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4322,7 +4559,10 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D85" t="s">
+        <v>347</v>
       </c>
       <c r="E85" t="s">
         <v>186</v>
@@ -4331,7 +4571,7 @@
         <v>83</v>
       </c>
       <c r="G85" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4339,7 +4579,10 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D86" t="s">
+        <v>347</v>
       </c>
       <c r="E86" t="s">
         <v>187</v>
@@ -4356,7 +4599,10 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
       </c>
       <c r="E87" t="s">
         <v>187</v>
@@ -4373,7 +4619,10 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D88" t="s">
+        <v>347</v>
       </c>
       <c r="E88" t="s">
         <v>189</v>
@@ -4390,7 +4639,10 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D89" t="s">
+        <v>347</v>
       </c>
       <c r="E89" t="s">
         <v>190</v>
@@ -4407,7 +4659,10 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D90" t="s">
+        <v>347</v>
       </c>
       <c r="E90" t="s">
         <v>193</v>
@@ -4424,7 +4679,10 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D91" t="s">
+        <v>347</v>
       </c>
       <c r="E91" t="s">
         <v>194</v>
@@ -4441,7 +4699,10 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D92" t="s">
+        <v>347</v>
       </c>
       <c r="E92" t="s">
         <v>195</v>
@@ -4458,7 +4719,10 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D93" t="s">
+        <v>347</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -4475,7 +4739,10 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D94" t="s">
+        <v>347</v>
       </c>
       <c r="E94" t="s">
         <v>191</v>
@@ -4492,7 +4759,10 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D95" t="s">
+        <v>347</v>
       </c>
       <c r="E95" t="s">
         <v>196</v>
@@ -4509,7 +4779,10 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D96" t="s">
+        <v>347</v>
       </c>
       <c r="E96" t="s">
         <v>197</v>
@@ -4526,7 +4799,10 @@
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D97" t="s">
+        <v>347</v>
       </c>
       <c r="E97" t="s">
         <v>189</v>
@@ -4543,7 +4819,10 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D98" t="s">
+        <v>347</v>
       </c>
       <c r="E98" t="s">
         <v>190</v>
@@ -4560,7 +4839,10 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D99" t="s">
+        <v>347</v>
       </c>
       <c r="E99" t="s">
         <v>193</v>
@@ -4577,7 +4859,10 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D100" t="s">
+        <v>347</v>
       </c>
       <c r="E100" t="s">
         <v>194</v>
@@ -4594,7 +4879,10 @@
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D101" t="s">
+        <v>347</v>
       </c>
       <c r="E101" t="s">
         <v>195</v>
@@ -4611,7 +4899,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D102" t="s">
+        <v>347</v>
       </c>
       <c r="E102" t="s">
         <v>192</v>
@@ -4628,7 +4919,10 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D103" t="s">
+        <v>347</v>
       </c>
       <c r="E103" t="s">
         <v>191</v>
@@ -4645,7 +4939,10 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D104" t="s">
+        <v>347</v>
       </c>
       <c r="E104" t="s">
         <v>196</v>
@@ -4662,7 +4959,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D105" t="s">
+        <v>347</v>
       </c>
       <c r="E105" t="s">
         <v>197</v>
@@ -4679,7 +4979,10 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D106" t="s">
+        <v>347</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>67</v>
@@ -4688,7 +4991,7 @@
         <v>87</v>
       </c>
       <c r="G106" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -4696,16 +4999,19 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D107" t="s">
+        <v>347</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F107">
         <v>87</v>
       </c>
       <c r="G107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -4713,16 +5019,19 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D108" t="s">
+        <v>347</v>
       </c>
       <c r="E108" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F108">
         <v>87</v>
       </c>
       <c r="G108" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -4730,7 +5039,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D109" t="s">
+        <v>347</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>68</v>
@@ -4739,7 +5051,7 @@
         <v>87</v>
       </c>
       <c r="G109" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -4747,16 +5059,19 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D110" t="s">
+        <v>347</v>
       </c>
       <c r="E110" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F110">
         <v>87</v>
       </c>
       <c r="G110" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -4764,16 +5079,19 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D111" t="s">
+        <v>347</v>
       </c>
       <c r="E111" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F111">
         <v>87</v>
       </c>
       <c r="G111" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -4781,7 +5099,10 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D112" t="s">
+        <v>347</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>67</v>
@@ -4790,7 +5111,7 @@
         <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -4798,16 +5119,19 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D113" t="s">
+        <v>347</v>
       </c>
       <c r="E113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F113">
         <v>87</v>
       </c>
       <c r="G113" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -4815,16 +5139,19 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D114" t="s">
+        <v>347</v>
       </c>
       <c r="E114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F114">
         <v>87</v>
       </c>
       <c r="G114" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -4832,7 +5159,10 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D115" t="s">
+        <v>347</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>68</v>
@@ -4841,7 +5171,7 @@
         <v>87</v>
       </c>
       <c r="G115" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -4849,16 +5179,19 @@
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D116" t="s">
+        <v>347</v>
       </c>
       <c r="E116" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F116">
         <v>87</v>
       </c>
       <c r="G116" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -4866,16 +5199,19 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D117" t="s">
+        <v>347</v>
       </c>
       <c r="E117" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F117">
         <v>87</v>
       </c>
       <c r="G117" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -4883,16 +5219,19 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D118" t="s">
+        <v>347</v>
       </c>
       <c r="E118" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F118">
         <v>96</v>
       </c>
       <c r="G118" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -4900,16 +5239,19 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D119" t="s">
+        <v>347</v>
       </c>
       <c r="E119" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F119">
         <v>96</v>
       </c>
       <c r="G119" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -4917,16 +5259,19 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D120" t="s">
+        <v>347</v>
       </c>
       <c r="E120" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F120">
         <v>96</v>
       </c>
       <c r="G120" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4934,16 +5279,19 @@
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D121" t="s">
+        <v>347</v>
       </c>
       <c r="E121" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F121">
         <v>97</v>
       </c>
       <c r="G121" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4951,16 +5299,19 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D122" t="s">
+        <v>347</v>
       </c>
       <c r="E122" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F122">
         <v>97</v>
       </c>
       <c r="G122" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4968,16 +5319,19 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D123" t="s">
+        <v>347</v>
       </c>
       <c r="E123" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F123">
         <v>97</v>
       </c>
       <c r="G123" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4985,7 +5339,10 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D124" t="s">
+        <v>347</v>
       </c>
       <c r="E124" t="s">
         <v>200</v>
@@ -5002,7 +5359,10 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D125" t="s">
+        <v>347</v>
       </c>
       <c r="E125" t="s">
         <v>201</v>
@@ -5019,10 +5379,13 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D126" t="s">
+        <v>347</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F126">
         <v>101</v>
@@ -5036,10 +5399,13 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D127" t="s">
+        <v>347</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F127">
         <v>102</v>
@@ -5053,7 +5419,10 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D128" t="s">
+        <v>347</v>
       </c>
       <c r="E128" t="s">
         <v>204</v>
@@ -5070,7 +5439,10 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D129" t="s">
+        <v>347</v>
       </c>
       <c r="E129" t="s">
         <v>205</v>
@@ -5087,7 +5459,10 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D130" t="s">
+        <v>347</v>
       </c>
       <c r="E130" t="s">
         <v>206</v>
@@ -5104,7 +5479,10 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D131" t="s">
+        <v>347</v>
       </c>
       <c r="E131" t="s">
         <v>207</v>
@@ -5121,7 +5499,10 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D132" t="s">
+        <v>347</v>
       </c>
       <c r="E132" t="s">
         <v>208</v>
@@ -5138,7 +5519,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D133" t="s">
+        <v>347</v>
       </c>
       <c r="E133" t="s">
         <v>209</v>
@@ -5155,7 +5539,10 @@
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D134" t="s">
+        <v>347</v>
       </c>
       <c r="E134" t="s">
         <v>210</v>
@@ -5172,7 +5559,10 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D135" t="s">
+        <v>347</v>
       </c>
       <c r="E135" t="s">
         <v>211</v>
@@ -5189,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D136" t="s">
         <v>215</v>
@@ -5209,7 +5599,7 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D137" t="s">
         <v>215</v>
@@ -5229,7 +5619,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D138" t="s">
         <v>215</v>
@@ -5249,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D139" t="s">
         <v>215</v>
@@ -5269,7 +5659,7 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D140" t="s">
         <v>215</v>
@@ -5289,7 +5679,7 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D141" t="s">
         <v>215</v>
@@ -5309,7 +5699,7 @@
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D142" t="s">
         <v>215</v>
@@ -5329,7 +5719,7 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D143" t="s">
         <v>215</v>
@@ -5349,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D144" t="s">
         <v>216</v>
@@ -5369,7 +5759,7 @@
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D145" t="s">
         <v>216</v>
@@ -5389,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D146" t="s">
         <v>216</v>
@@ -5409,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D147" t="s">
         <v>216</v>
@@ -5429,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D148" t="s">
         <v>216</v>
@@ -5449,7 +5839,7 @@
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D149" t="s">
         <v>216</v>
@@ -5469,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D150" t="s">
         <v>216</v>
@@ -5489,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D151" t="s">
         <v>216</v>
@@ -5509,16 +5899,19 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D152" t="s">
+        <v>347</v>
       </c>
       <c r="E152" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="F152">
         <v>109</v>
       </c>
       <c r="G152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5526,16 +5919,19 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D153" t="s">
+        <v>347</v>
       </c>
       <c r="E153" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="F153">
         <v>110</v>
       </c>
       <c r="G153" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5543,16 +5939,19 @@
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D154" t="s">
+        <v>347</v>
       </c>
       <c r="E154" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="F154">
         <v>110</v>
       </c>
       <c r="G154" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5560,16 +5959,19 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D155" t="s">
+        <v>347</v>
       </c>
       <c r="E155" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="F155">
         <v>111</v>
       </c>
       <c r="G155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5577,16 +5979,19 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D156" t="s">
+        <v>347</v>
       </c>
       <c r="E156" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="F156">
         <v>111</v>
       </c>
       <c r="G156" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5594,16 +5999,19 @@
         <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D157" t="s">
+        <v>347</v>
       </c>
       <c r="E157" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="F157">
         <v>112</v>
       </c>
       <c r="G157" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5611,16 +6019,19 @@
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D158" t="s">
+        <v>347</v>
       </c>
       <c r="E158" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="F158">
         <v>112</v>
       </c>
       <c r="G158" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5628,16 +6039,19 @@
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D159" t="s">
+        <v>347</v>
       </c>
       <c r="E159" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="F159">
         <v>112</v>
       </c>
       <c r="G159" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5645,16 +6059,19 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D160" t="s">
+        <v>347</v>
       </c>
       <c r="E160" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="F160">
         <v>112</v>
       </c>
       <c r="G160" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5662,16 +6079,19 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D161" t="s">
+        <v>347</v>
       </c>
       <c r="E161" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F161">
         <v>113</v>
       </c>
       <c r="G161" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5679,16 +6099,19 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D162" t="s">
+        <v>347</v>
       </c>
       <c r="E162" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F162">
         <v>114</v>
       </c>
       <c r="G162" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -5696,16 +6119,19 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D163" t="s">
+        <v>347</v>
       </c>
       <c r="E163" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F163">
         <v>114</v>
       </c>
       <c r="G163" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5713,16 +6139,19 @@
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D164" t="s">
+        <v>347</v>
       </c>
       <c r="E164" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F164">
         <v>114</v>
       </c>
       <c r="G164" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5730,16 +6159,19 @@
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D165" t="s">
+        <v>347</v>
       </c>
       <c r="E165" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F165">
         <v>114</v>
       </c>
       <c r="G165" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5747,16 +6179,19 @@
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D166" t="s">
+        <v>347</v>
       </c>
       <c r="E166" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F166">
         <v>114</v>
       </c>
       <c r="G166" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5764,7 +6199,10 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D167" t="s">
+        <v>347</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>99</v>
@@ -5773,7 +6211,7 @@
         <v>119</v>
       </c>
       <c r="G167" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5781,7 +6219,10 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D168" t="s">
+        <v>347</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>99</v>
@@ -5790,7 +6231,7 @@
         <v>120</v>
       </c>
       <c r="G168" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5798,16 +6239,19 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D169" t="s">
+        <v>347</v>
       </c>
       <c r="E169" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F169">
         <v>120</v>
       </c>
       <c r="G169" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5815,16 +6259,19 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D170" t="s">
+        <v>347</v>
       </c>
       <c r="E170" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F170">
         <v>121</v>
       </c>
       <c r="G170" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5832,16 +6279,19 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D171" t="s">
+        <v>347</v>
       </c>
       <c r="E171" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F171">
         <v>121</v>
       </c>
       <c r="G171" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5849,16 +6299,19 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D172" t="s">
+        <v>347</v>
       </c>
       <c r="E172" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F172">
         <v>122</v>
       </c>
       <c r="G172" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5866,16 +6319,19 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D173" t="s">
+        <v>347</v>
       </c>
       <c r="E173" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F173">
         <v>122</v>
       </c>
       <c r="G173" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5883,16 +6339,19 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D174" t="s">
+        <v>347</v>
       </c>
       <c r="E174" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F174">
         <v>123</v>
       </c>
       <c r="G174" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5900,16 +6359,19 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D175" t="s">
+        <v>347</v>
       </c>
       <c r="E175" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F175">
         <v>124</v>
       </c>
       <c r="G175" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5917,16 +6379,19 @@
         <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D176" t="s">
+        <v>347</v>
       </c>
       <c r="E176" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F176">
         <v>125</v>
       </c>
       <c r="G176" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5934,16 +6399,19 @@
         <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D177" t="s">
+        <v>347</v>
       </c>
       <c r="E177" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F177">
         <v>125</v>
       </c>
       <c r="G177" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5951,16 +6419,19 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D178" t="s">
+        <v>347</v>
       </c>
       <c r="E178" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F178">
         <v>125</v>
       </c>
       <c r="G178" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5968,16 +6439,19 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D179" t="s">
+        <v>347</v>
       </c>
       <c r="E179" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F179">
         <v>125</v>
       </c>
       <c r="G179" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5985,16 +6459,19 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D180" t="s">
+        <v>347</v>
       </c>
       <c r="E180" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F180">
         <v>125</v>
       </c>
       <c r="G180" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -6002,16 +6479,19 @@
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D181" t="s">
+        <v>347</v>
       </c>
       <c r="E181" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F181">
         <v>125</v>
       </c>
       <c r="G181" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -6019,16 +6499,19 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D182" t="s">
+        <v>347</v>
       </c>
       <c r="E182" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F182">
         <v>125</v>
       </c>
       <c r="G182" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -6036,16 +6519,19 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D183" t="s">
+        <v>347</v>
       </c>
       <c r="E183" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F183">
         <v>126</v>
       </c>
       <c r="G183" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -6053,16 +6539,19 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D184" t="s">
+        <v>347</v>
       </c>
       <c r="E184" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F184">
         <v>126</v>
       </c>
       <c r="G184" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -6070,7 +6559,10 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D185" t="s">
+        <v>347</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>105</v>
@@ -6079,7 +6571,7 @@
         <v>130</v>
       </c>
       <c r="G185" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -6087,7 +6579,10 @@
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D186" t="s">
+        <v>347</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>105</v>
@@ -6096,7 +6591,7 @@
         <v>131</v>
       </c>
       <c r="G186" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -6104,16 +6599,19 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D187" t="s">
+        <v>347</v>
       </c>
       <c r="E187" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F187">
         <v>132</v>
       </c>
       <c r="G187" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -6121,16 +6619,19 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D188" t="s">
+        <v>347</v>
       </c>
       <c r="E188" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F188">
         <v>133</v>
       </c>
       <c r="G188" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -6138,16 +6639,19 @@
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D189" t="s">
+        <v>347</v>
       </c>
       <c r="E189" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F189">
         <v>134</v>
       </c>
       <c r="G189" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6155,16 +6659,19 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D190" t="s">
+        <v>347</v>
       </c>
       <c r="E190" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F190">
         <v>134</v>
       </c>
       <c r="G190" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -6172,16 +6679,19 @@
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D191" t="s">
+        <v>347</v>
       </c>
       <c r="E191" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F191">
         <v>134</v>
       </c>
       <c r="G191" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -6189,16 +6699,19 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D192" t="s">
+        <v>347</v>
       </c>
       <c r="E192" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F192">
         <v>134</v>
       </c>
       <c r="G192" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -6206,16 +6719,19 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D193" t="s">
+        <v>347</v>
       </c>
       <c r="E193" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F193">
         <v>134</v>
       </c>
       <c r="G193" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -6223,16 +6739,19 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D194" t="s">
+        <v>347</v>
       </c>
       <c r="E194" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F194">
         <v>134</v>
       </c>
       <c r="G194" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -6240,16 +6759,19 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D195" t="s">
+        <v>347</v>
       </c>
       <c r="E195" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F195">
         <v>134</v>
       </c>
       <c r="G195" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -6257,16 +6779,19 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D196" t="s">
+        <v>347</v>
       </c>
       <c r="E196" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F196">
         <v>134</v>
       </c>
       <c r="G196" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -6274,16 +6799,19 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D197" t="s">
+        <v>347</v>
       </c>
       <c r="E197" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F197">
         <v>134</v>
       </c>
       <c r="G197" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -6291,16 +6819,19 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D198" t="s">
+        <v>347</v>
       </c>
       <c r="E198" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F198">
         <v>134</v>
       </c>
       <c r="G198" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -6308,16 +6839,19 @@
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D199" t="s">
+        <v>347</v>
       </c>
       <c r="E199" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F199">
         <v>134</v>
       </c>
       <c r="G199" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -6325,16 +6859,19 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D200" t="s">
+        <v>347</v>
       </c>
       <c r="E200" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F200">
         <v>134</v>
       </c>
       <c r="G200" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -6342,7 +6879,10 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D201" t="s">
+        <v>347</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>110</v>
@@ -6351,7 +6891,7 @@
         <v>137</v>
       </c>
       <c r="G201" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -6359,16 +6899,19 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D202" t="s">
+        <v>347</v>
       </c>
       <c r="E202" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F202">
         <v>137</v>
       </c>
       <c r="G202" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -6376,7 +6919,10 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D203" t="s">
+        <v>347</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>110</v>
@@ -6385,7 +6931,7 @@
         <v>138</v>
       </c>
       <c r="G203" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -6393,16 +6939,19 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D204" t="s">
+        <v>347</v>
       </c>
       <c r="E204" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F204">
         <v>138</v>
       </c>
       <c r="G204" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -6410,16 +6959,19 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D205" t="s">
+        <v>347</v>
       </c>
       <c r="E205" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F205">
         <v>141</v>
       </c>
       <c r="G205" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -6427,16 +6979,19 @@
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D206" t="s">
+        <v>347</v>
       </c>
       <c r="E206" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F206">
         <v>142</v>
       </c>
       <c r="G206" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -6444,16 +6999,19 @@
         <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D207" t="s">
+        <v>347</v>
       </c>
       <c r="E207" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F207">
         <v>142</v>
       </c>
       <c r="G207" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6461,16 +7019,19 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D208" t="s">
+        <v>347</v>
       </c>
       <c r="E208" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F208">
         <v>143</v>
       </c>
       <c r="G208" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6478,16 +7039,19 @@
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D209" t="s">
+        <v>347</v>
       </c>
       <c r="E209" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F209">
         <v>144</v>
       </c>
       <c r="G209" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6495,16 +7059,19 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D210" t="s">
+        <v>347</v>
       </c>
       <c r="E210" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F210">
         <v>144</v>
       </c>
       <c r="G210" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6512,16 +7079,19 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D211" t="s">
+        <v>347</v>
       </c>
       <c r="E211" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F211">
         <v>145</v>
       </c>
       <c r="G211" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6529,16 +7099,19 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D212" t="s">
+        <v>347</v>
       </c>
       <c r="E212" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F212">
         <v>145</v>
       </c>
       <c r="G212" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6546,16 +7119,19 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D213" t="s">
+        <v>347</v>
       </c>
       <c r="E213" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F213">
         <v>145</v>
       </c>
       <c r="G213" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6563,16 +7139,19 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D214" t="s">
+        <v>347</v>
       </c>
       <c r="E214" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F214">
         <v>145</v>
       </c>
       <c r="G214" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6580,16 +7159,19 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D215" t="s">
+        <v>347</v>
       </c>
       <c r="E215" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F215">
         <v>145</v>
       </c>
       <c r="G215" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6597,16 +7179,19 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D216" t="s">
+        <v>347</v>
       </c>
       <c r="E216" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F216">
         <v>145</v>
       </c>
       <c r="G216" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6614,16 +7199,19 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D217" t="s">
+        <v>347</v>
       </c>
       <c r="E217" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F217">
         <v>145</v>
       </c>
       <c r="G217" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6631,16 +7219,19 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D218" t="s">
+        <v>347</v>
       </c>
       <c r="E218" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F218">
         <v>145</v>
       </c>
       <c r="G218" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6648,16 +7239,19 @@
         <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D219" t="s">
+        <v>347</v>
       </c>
       <c r="E219" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F219">
         <v>146</v>
       </c>
       <c r="G219" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6665,16 +7259,19 @@
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D220" t="s">
+        <v>347</v>
       </c>
       <c r="E220" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F220">
         <v>146</v>
       </c>
       <c r="G220" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6682,16 +7279,19 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D221" t="s">
+        <v>347</v>
       </c>
       <c r="E221" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F221">
         <v>146</v>
       </c>
       <c r="G221" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6699,16 +7299,19 @@
         <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D222" t="s">
+        <v>347</v>
       </c>
       <c r="E222" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F222">
         <v>146</v>
       </c>
       <c r="G222" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6716,16 +7319,19 @@
         <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D223" t="s">
+        <v>347</v>
       </c>
       <c r="E223" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F223">
         <v>146</v>
       </c>
       <c r="G223" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6733,16 +7339,19 @@
         <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D224" t="s">
+        <v>347</v>
       </c>
       <c r="E224" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F224">
         <v>146</v>
       </c>
       <c r="G224" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6750,16 +7359,19 @@
         <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D225" t="s">
+        <v>347</v>
       </c>
       <c r="E225" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F225">
         <v>146</v>
       </c>
       <c r="G225" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -6767,16 +7379,19 @@
         <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D226" t="s">
+        <v>347</v>
       </c>
       <c r="E226" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F226">
         <v>146</v>
       </c>
       <c r="G226" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -6784,16 +7399,19 @@
         <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D227" t="s">
+        <v>347</v>
       </c>
       <c r="E227" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F227">
         <v>146</v>
       </c>
       <c r="G227" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -6801,16 +7419,19 @@
         <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D228" t="s">
+        <v>347</v>
       </c>
       <c r="E228" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F228">
         <v>146</v>
       </c>
       <c r="G228" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6818,16 +7439,19 @@
         <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D229" t="s">
+        <v>347</v>
       </c>
       <c r="E229" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F229">
         <v>147</v>
       </c>
       <c r="G229" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6835,16 +7459,19 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D230" t="s">
+        <v>347</v>
       </c>
       <c r="E230" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F230">
         <v>148</v>
       </c>
       <c r="G230" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6852,7 +7479,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D231" t="s">
+        <v>347</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>124</v>
@@ -6861,7 +7491,7 @@
         <v>153</v>
       </c>
       <c r="G231" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6869,16 +7499,19 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D232" t="s">
+        <v>347</v>
       </c>
       <c r="E232" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F232">
         <v>153</v>
       </c>
       <c r="G232" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6886,7 +7519,10 @@
         <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D233" t="s">
+        <v>347</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>124</v>
@@ -6895,7 +7531,7 @@
         <v>154</v>
       </c>
       <c r="G233" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6903,16 +7539,19 @@
         <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D234" t="s">
+        <v>347</v>
       </c>
       <c r="E234" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F234">
         <v>154</v>
       </c>
       <c r="G234" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6920,16 +7559,19 @@
         <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D235" t="s">
+        <v>347</v>
       </c>
       <c r="E235" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F235">
         <v>154</v>
       </c>
       <c r="G235" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6937,16 +7579,19 @@
         <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D236" t="s">
+        <v>347</v>
       </c>
       <c r="E236" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F236">
         <v>154</v>
       </c>
       <c r="G236" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6954,16 +7599,19 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D237" t="s">
+        <v>347</v>
       </c>
       <c r="E237" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F237">
         <v>155</v>
       </c>
       <c r="G237" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -6971,7 +7619,10 @@
         <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D238" t="s">
+        <v>347</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>79</v>
@@ -6980,7 +7631,7 @@
         <v>156</v>
       </c>
       <c r="G238" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -6988,7 +7639,10 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D239" t="s">
+        <v>347</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>79</v>
@@ -6997,7 +7651,7 @@
         <v>156</v>
       </c>
       <c r="G239" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7005,19 +7659,19 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D240" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="E240" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F240">
         <v>156</v>
       </c>
       <c r="G240" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -7025,19 +7679,19 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D241" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="E241" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F241">
         <v>156</v>
       </c>
       <c r="G241" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -7045,16 +7699,19 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D242" t="s">
+        <v>347</v>
       </c>
       <c r="E242" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F242">
         <v>157</v>
       </c>
       <c r="G242" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -7062,16 +7719,19 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D243" t="s">
+        <v>347</v>
       </c>
       <c r="E243" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F243">
         <v>158</v>
       </c>
       <c r="G243" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -7079,16 +7739,19 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D244" t="s">
+        <v>347</v>
       </c>
       <c r="E244" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F244">
         <v>158</v>
       </c>
       <c r="G244" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7096,16 +7759,19 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D245" t="s">
+        <v>347</v>
       </c>
       <c r="E245" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F245">
         <v>159</v>
       </c>
       <c r="G245" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7113,16 +7779,19 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D246" t="s">
+        <v>347</v>
       </c>
       <c r="E246" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F246">
         <v>159</v>
       </c>
       <c r="G246" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7130,16 +7799,19 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D247" t="s">
+        <v>347</v>
       </c>
       <c r="E247" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F247">
         <v>159</v>
       </c>
       <c r="G247" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7147,16 +7819,19 @@
         <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D248" t="s">
+        <v>347</v>
       </c>
       <c r="E248" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F248">
         <v>160</v>
       </c>
       <c r="G248" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7164,16 +7839,19 @@
         <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D249" t="s">
+        <v>347</v>
       </c>
       <c r="E249" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F249">
         <v>160</v>
       </c>
       <c r="G249" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -7181,16 +7859,19 @@
         <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D250" t="s">
+        <v>347</v>
       </c>
       <c r="E250" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F250">
         <v>160</v>
       </c>
       <c r="G250" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7198,16 +7879,19 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D251" t="s">
+        <v>347</v>
       </c>
       <c r="E251" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F251">
         <v>160</v>
       </c>
       <c r="G251" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7215,16 +7899,19 @@
         <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D252" t="s">
+        <v>347</v>
       </c>
       <c r="E252" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F252">
         <v>160</v>
       </c>
       <c r="G252" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7232,16 +7919,19 @@
         <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D253" t="s">
+        <v>347</v>
       </c>
       <c r="E253" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F253">
         <v>160</v>
       </c>
       <c r="G253" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7249,16 +7939,19 @@
         <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D254" t="s">
+        <v>347</v>
       </c>
       <c r="E254" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F254">
         <v>160</v>
       </c>
       <c r="G254" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7266,16 +7959,19 @@
         <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D255" t="s">
+        <v>347</v>
       </c>
       <c r="E255" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F255">
         <v>160</v>
       </c>
       <c r="G255" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7283,16 +7979,19 @@
         <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D256" t="s">
+        <v>347</v>
       </c>
       <c r="E256" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F256">
         <v>160</v>
       </c>
       <c r="G256" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7300,16 +7999,19 @@
         <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D257" t="s">
+        <v>347</v>
       </c>
       <c r="E257" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F257">
         <v>160</v>
       </c>
       <c r="G257" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7317,16 +8019,19 @@
         <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D258" t="s">
+        <v>347</v>
       </c>
       <c r="E258" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F258">
         <v>160</v>
       </c>
       <c r="G258" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7334,16 +8039,19 @@
         <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D259" t="s">
+        <v>347</v>
       </c>
       <c r="E259" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F259">
         <v>160</v>
       </c>
       <c r="G259" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7351,16 +8059,19 @@
         <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D260" t="s">
+        <v>347</v>
       </c>
       <c r="E260" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F260">
         <v>161</v>
       </c>
       <c r="G260" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7368,16 +8079,19 @@
         <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D261" t="s">
+        <v>347</v>
       </c>
       <c r="E261" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F261">
         <v>161</v>
       </c>
       <c r="G261" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7385,16 +8099,19 @@
         <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D262" t="s">
+        <v>347</v>
       </c>
       <c r="E262" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F262">
         <v>161</v>
       </c>
       <c r="G262" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7402,16 +8119,19 @@
         <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D263" t="s">
+        <v>347</v>
       </c>
       <c r="E263" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F263">
         <v>161</v>
       </c>
       <c r="G263" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7419,16 +8139,19 @@
         <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="D264" t="s">
+        <v>347</v>
       </c>
       <c r="E264" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F264">
         <v>162</v>
       </c>
       <c r="G264" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7436,16 +8159,19 @@
         <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="D265" t="s">
+        <v>347</v>
       </c>
       <c r="E265" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F265">
         <v>162</v>
       </c>
       <c r="G265" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
